--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.994</v>
+        <v>21.024</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.012</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.548</v>
+        <v>21.342</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.799</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.066</v>
+        <v>18.95</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30.42566911196991</v>
+        <v>-10.97465482736985</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.42566911196991</v>
+        <v>23.30016871701022</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.42566911196991</v>
+        <v>29.47739350996912</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.42566911196991</v>
+        <v>-1.477273429382453</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30.42566911196991</v>
+        <v>12.83248050610151</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.42566911196991</v>
+        <v>17.20668351819605</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.42566911196991</v>
+        <v>13.17331189362343</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.42566911196991</v>
+        <v>20.16206828290316</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.42566911196991</v>
+        <v>23.49746077783172</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.42566911196991</v>
+        <v>28.3407927560373</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.42566911196991</v>
+        <v>36.40235366958231</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.42566911196991</v>
+        <v>39.27598679419529</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.42566911196991</v>
+        <v>9.606469708300519</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.42566911196991</v>
+        <v>28.43844961406634</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.42566911196991</v>
+        <v>33.95639652820168</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30.42566911196991</v>
+        <v>-6.399714881941268</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.42566911196991</v>
+        <v>27.87979582099635</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.42566911196991</v>
+        <v>34.05880518048363</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30.42566911196991</v>
+        <v>3.093593941615691</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.42566911196991</v>
+        <v>17.40741721771425</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.42566911196991</v>
+        <v>21.78302132180371</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.42566911196991</v>
+        <v>17.74914211297877</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.42566911196991</v>
+        <v>24.74126571828807</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.42566911196991</v>
+        <v>28.07782588609413</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.42566911196991</v>
+        <v>32.92405476598796</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.42566911196991</v>
+        <v>40.98812359879318</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30.42566911196991</v>
+        <v>43.86259706131224</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.42566911196991</v>
+        <v>14.18688942703201</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.42566911196991</v>
+        <v>33.02462096770475</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.42566911196991</v>
+        <v>38.5436168255778</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30.42566911196991</v>
+        <v>1.7634144508182</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.42566911196991</v>
+        <v>36.04357859912133</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.42566911196991</v>
+        <v>42.22354949492328</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30.42566911196991</v>
+        <v>11.25941731074417</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>30.42566911196991</v>
+        <v>25.57392207867562</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.42566911196991</v>
+        <v>29.95048941172464</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.42566911196991</v>
+        <v>25.91652332115072</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30.42566911196991</v>
+        <v>32.90925895134464</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>30.42566911196991</v>
+        <v>36.24667697978188</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.42566911196991</v>
+        <v>41.09483512317829</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.42566911196991</v>
+        <v>49.15944781336711</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>30.42566911196991</v>
+        <v>52.03428458989228</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.42566911196991</v>
+        <v>22.356626490823</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>30.42566911196991</v>
+        <v>41.19520065285334</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>30.42566911196991</v>
+        <v>46.71523985729161</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.42566911196991</v>
+        <v>-6.902065490026335</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.42566911196991</v>
+        <v>27.3737770366375</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.42566911196991</v>
+        <v>33.55048767864</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.42566911196991</v>
+        <v>2.596419357774348</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.42566911196991</v>
+        <v>16.90741026985287</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.42566911196991</v>
+        <v>21.28115095913571</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.42566911196991</v>
+        <v>17.24726836076828</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.42566911196991</v>
+        <v>24.23720146739364</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.42566911196991</v>
+        <v>27.57219264802901</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.42566911196991</v>
+        <v>32.41523926031309</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.42566911196991</v>
+        <v>40.47717162097862</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.42566911196991</v>
+        <v>43.35052699966283</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>30.42566911196991</v>
+        <v>13.67986706876749</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.42566911196991</v>
+        <v>32.51307187909774</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.42566911196991</v>
+        <v>38.03057592183436</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.329865283314607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.42566911196991</v>
+        <v>31.95066442876995</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.42566911196991</v>
+        <v>38.1291594814389</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>30.42566911196991</v>
+        <v>7.164547061073872</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.42566911196991</v>
+        <v>21.47960731102384</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.42566911196991</v>
+        <v>25.85474895110914</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.42566911196991</v>
+        <v>21.82035886874845</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.42566911196991</v>
+        <v>28.81365918100513</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.42566911196991</v>
+        <v>32.1498179121123</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>30.42566911196991</v>
+        <v>36.99576157117312</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.42566911196991</v>
+        <v>45.06020181823712</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.42566911196991</v>
+        <v>47.93439746897636</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.42566911196991</v>
+        <v>18.25754730042362</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.42566911196991</v>
+        <v>37.0965037373962</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.42566911196991</v>
+        <v>42.61505657773338</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.42566911196991</v>
+        <v>5.833963567685569</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30.42566911196991</v>
+        <v>40.11514665899833</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30.42566911196991</v>
+        <v>46.29460330489493</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.42566911196991</v>
+        <v>15.33106981217483</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.42566911196991</v>
+        <v>29.64681150313944</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.42566911196991</v>
+        <v>34.02291645090745</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.42566911196991</v>
+        <v>29.98843953424179</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.42566911196991</v>
+        <v>36.98235183049596</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30.42566911196991</v>
+        <v>40.31936849965913</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.42566911196991</v>
+        <v>45.16724131297846</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.42566911196991</v>
+        <v>53.2322253842726</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.42566911196991</v>
+        <v>56.1067844091385</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>30.42566911196991</v>
+        <v>26.42798376257096</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.42566911196991</v>
+        <v>45.26778276564627</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.42566911196991</v>
+        <v>50.78737900559153</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.359428623282415</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.42566911196991</v>
+        <v>25.91634909953265</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.42566911196991</v>
+        <v>32.09297401032015</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>30.42566911196991</v>
+        <v>1.138774529153206</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.42566911196991</v>
+        <v>15.44966648753413</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.42566911196991</v>
+        <v>19.82332324833348</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.42566911196991</v>
+        <v>15.78965633198171</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.42566911196991</v>
+        <v>22.77949111110294</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.42566911196991</v>
+        <v>26.11440810609448</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.42566911196991</v>
+        <v>30.95770133325285</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.42566911196991</v>
+        <v>39.01955796431545</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>30.42566911196991</v>
+        <v>41.89289023658918</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.42566911196991</v>
+        <v>12.22249298941832</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.42566911196991</v>
+        <v>31.05560261685431</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.42566911196991</v>
+        <v>36.57300243237123</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.785809757561456</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.42566911196991</v>
+        <v>30.49465520781072</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.42566911196991</v>
+        <v>36.67306451483032</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.42566911196991</v>
+        <v>5.708320963004635</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.42566911196991</v>
+        <v>20.02328230293753</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.42566911196991</v>
+        <v>24.3983400030622</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.42566911196991</v>
+        <v>20.3641656269377</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.42566911196991</v>
+        <v>27.35736764849045</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.42566911196991</v>
+        <v>30.69345218419013</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.42566911196991</v>
+        <v>35.53964236687679</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.42566911196991</v>
+        <v>43.60400688843785</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.42566911196991</v>
+        <v>46.47817943039578</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.42566911196991</v>
+        <v>16.8015919109051</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.42566911196991</v>
+        <v>35.6404532013224</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.42566911196991</v>
+        <v>41.15890180441019</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.42566911196991</v>
+        <v>4.378120422598467</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.42566911196991</v>
+        <v>38.65923877798124</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.42566911196991</v>
+        <v>44.83860967987059</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>30.42566911196991</v>
+        <v>13.87494502820422</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.42566911196991</v>
+        <v>28.19058781948101</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.42566911196991</v>
+        <v>32.5666088334236</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>30.42566911196991</v>
+        <v>28.53234760583208</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>30.42566911196991</v>
+        <v>35.52616162017168</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.42566911196991</v>
+        <v>38.8631041009555</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.42566911196991</v>
+        <v>43.71122339858297</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.42566911196991</v>
+        <v>51.77613175758344</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.42566911196991</v>
+        <v>54.65066767337564</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.42566911196991</v>
+        <v>24.97212964460649</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.42566911196991</v>
+        <v>43.81183351479066</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.42566911196991</v>
+        <v>49.33132551917774</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>30.42566911196991</v>
+        <v>-14.87289462917991</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>30.42566911196991</v>
+        <v>19.40143594856462</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.42566911196991</v>
+        <v>25.57848430603107</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>30.42566911196991</v>
+        <v>-5.375945678520939</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>30.42566911196991</v>
+        <v>8.933459073149802</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.42566911196991</v>
+        <v>13.30748966565372</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>30.42566911196991</v>
+        <v>9.274325257344653</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.42566911196991</v>
+        <v>16.26281244350534</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.42566911196991</v>
+        <v>19.59805205106144</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.42566911196991</v>
+        <v>24.44151589897578</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.42566911196991</v>
+        <v>32.50295146455866</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.42566911196991</v>
+        <v>35.37649596469689</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.42566911196991</v>
+        <v>5.707674154656015</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.42566911196991</v>
+        <v>24.53922927334017</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.42566911196991</v>
+        <v>30.05699153314637</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>30.42566911196991</v>
+        <v>-10.29870520130899</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.42566911196991</v>
+        <v>23.98031246532625</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.42566911196991</v>
+        <v>30.15914536508646</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.8058288410642582</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.42566911196991</v>
+        <v>13.50764518421371</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.42566911196991</v>
+        <v>17.88307685054221</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.42566911196991</v>
+        <v>13.84940487062576</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.42566911196991</v>
+        <v>20.84125921452491</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.42566911196991</v>
+        <v>24.1776664802031</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.42566911196991</v>
+        <v>29.02402724877365</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.42566911196991</v>
+        <v>37.08797069417639</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.42566911196991</v>
+        <v>39.96235552230812</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.42566911196991</v>
+        <v>10.2873432546697</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.42566911196991</v>
+        <v>29.12464991768169</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.42566911196991</v>
+        <v>34.64346110632331</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.135002502113739</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.42566911196991</v>
+        <v>32.14466862196045</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.42566911196991</v>
+        <v>38.32446305196171</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.42566911196991</v>
+        <v>7.360567874004655</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.42566911196991</v>
+        <v>21.67472339961179</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.42566911196991</v>
+        <v>26.0511182853381</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.42566911196991</v>
+        <v>22.01735945775303</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.42566911196991</v>
+        <v>29.00982583339461</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.42566911196991</v>
+        <v>32.34709095028549</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>30.42566911196991</v>
+        <v>37.19538090683031</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.42566911196991</v>
+        <v>45.25986821553724</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.42566911196991</v>
+        <v>48.1346163612171</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.42566911196991</v>
+        <v>18.45765361404423</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>30.42566911196991</v>
+        <v>37.29580290442979</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.42566911196991</v>
+        <v>42.81565742721997</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.42566911196991</v>
+        <v>-6.706482323389682</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.42566911196991</v>
+        <v>27.56860105458994</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.42566911196991</v>
+        <v>33.74563013656356</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>30.42566911196991</v>
+        <v>2.791277235986254</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.42566911196991</v>
+        <v>17.10138165130362</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.42566911196991</v>
+        <v>21.47538984410695</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>30.42566911196991</v>
+        <v>17.44209702786324</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.42566911196991</v>
+        <v>24.43119775947136</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.42566911196991</v>
+        <v>27.76641532820437</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.42566911196991</v>
+        <v>32.60972857129386</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.42566911196991</v>
+        <v>40.67141142533191</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.42566911196991</v>
+        <v>43.54491642824937</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>30.42566911196991</v>
+        <v>13.87511540273985</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.42566911196991</v>
+        <v>32.70738360674281</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.42566911196991</v>
+        <v>38.22514553872165</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.130368482926801</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.42566911196991</v>
+        <v>32.14940202443196</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.42566911196991</v>
+        <v>38.32821561769671</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>30.42566911196991</v>
+        <v>7.363318609835769</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.42566911196991</v>
+        <v>21.67749233972514</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.42566911196991</v>
+        <v>26.05290156769453</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.42566911196991</v>
+        <v>22.01910129449683</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.42566911196991</v>
+        <v>29.01156922059405</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.42566911196991</v>
+        <v>32.34795441077992</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.42566911196991</v>
+        <v>37.19416457526822</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.42566911196991</v>
+        <v>45.25835532077778</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>30.42566911196991</v>
+        <v>48.1327006381218</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.42566911196991</v>
+        <v>18.45670914499723</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.42566911196991</v>
+        <v>37.29472894116086</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.42566911196991</v>
+        <v>42.81353976570014</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.42566911196991</v>
+        <v>6.031976189506931</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.42566911196991</v>
+        <v>40.31240010872361</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.42566911196991</v>
+        <v>46.49217525983622</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.42566911196991</v>
+        <v>15.52835724235009</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.42566911196991</v>
+        <v>29.84321243579799</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.42566911196991</v>
+        <v>34.21958491211373</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.42566911196991</v>
+        <v>30.18569773507724</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>30.42566911196991</v>
+        <v>37.17877766140086</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30.42566911196991</v>
+        <v>40.51602072897626</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.42566911196991</v>
+        <v>45.36416012979871</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.42566911196991</v>
+        <v>53.42889473117302</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>30.42566911196991</v>
+        <v>56.30360337789543</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.42566911196991</v>
+        <v>26.62566142979344</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>30.42566911196991</v>
+        <v>45.46452382599611</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>30.42566911196991</v>
+        <v>50.98437801460474</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.80009227970098</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.42566911196991</v>
+        <v>31.473671799853</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.42566911196991</v>
+        <v>37.64994900127269</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.42566911196991</v>
+        <v>6.698016405251874</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.42566911196991</v>
+        <v>21.0081477895703</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.42566911196991</v>
+        <v>25.3815514695311</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.42566911196991</v>
+        <v>21.3482099907786</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.42566911196991</v>
+        <v>28.3377351518437</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.42566911196991</v>
+        <v>31.67245622821323</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.42566911196991</v>
+        <v>36.51519555383661</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.42566911196991</v>
+        <v>44.57664560869509</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.42566911196991</v>
+        <v>47.44976296032675</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.42566911196991</v>
+        <v>17.78083467333985</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.42566911196991</v>
+        <v>36.61279950227933</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.42566911196991</v>
+        <v>42.12990190158891</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.42566911196991</v>
+        <v>1.777063630114608</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.42566911196991</v>
+        <v>36.05551463690583</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.42566911196991</v>
+        <v>42.23357611654066</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.42566911196991</v>
+        <v>11.27110026531099</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.42566911196991</v>
+        <v>25.58530079074816</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>30.42566911196991</v>
+        <v>29.96010529355939</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.42566911196991</v>
+        <v>25.92625655278206</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.42566911196991</v>
+        <v>32.9191487671886</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.42566911196991</v>
+        <v>36.25503727890222</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>30.42566911196991</v>
+        <v>41.10067336044094</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.42566911196991</v>
+        <v>49.16463117229657</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.42566911196991</v>
+        <v>52.03858873447959</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>30.42566911196991</v>
+        <v>22.36347047474655</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.42566911196991</v>
+        <v>41.20118662978754</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.42566911196991</v>
+        <v>46.71933772976237</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.42566911196991</v>
+        <v>9.938820074722425</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>30.42566911196991</v>
+        <v>44.21792437672102</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.42566911196991</v>
+        <v>50.39694739945352</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.42566911196991</v>
+        <v>19.43555031022751</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.42566911196991</v>
+        <v>33.75043219587005</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.42566911196991</v>
+        <v>38.12619994311476</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.42566911196991</v>
+        <v>34.0922643560942</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.42566911196991</v>
+        <v>41.08576848201957</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.42566911196991</v>
+        <v>44.42251487190558</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.42566911196991</v>
+        <v>49.2700800200881</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>30.42566911196991</v>
+        <v>57.33458162374049</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.42566911196991</v>
+        <v>60.20890252546323</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.42566911196991</v>
+        <v>30.53183396050585</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>30.42566911196991</v>
+        <v>49.37039260262256</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.42566911196991</v>
+        <v>54.88958704434137</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.42566911196991</v>
+        <v>-13.06394631321112</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.42566911196991</v>
+        <v>21.20894689333724</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>30.42566911196991</v>
+        <v>27.38560316819413</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.567074399266208</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.42566911196991</v>
+        <v>10.74204625253807</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.42566911196991</v>
+        <v>15.11583793595534</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.42566911196991</v>
+        <v>11.08257100814521</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.42566911196991</v>
+        <v>18.07114104302749</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.42566911196991</v>
+        <v>21.40621472798452</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.42566911196991</v>
+        <v>26.24924208804245</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.42566911196991</v>
+        <v>34.31028615994202</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.42566911196991</v>
+        <v>37.18369970502519</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.42566911196991</v>
+        <v>7.515837520571804</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.42566911196991</v>
+        <v>26.346912289247</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.42566911196991</v>
+        <v>31.86435241590081</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.488563619464262</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.42566911196991</v>
+        <v>25.78901660432868</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.42566911196991</v>
+        <v>31.96745727967319</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.42566911196991</v>
+        <v>1.00423607966567</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.42566911196991</v>
+        <v>15.31742594125179</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.42566911196991</v>
+        <v>19.69261858277408</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.42566911196991</v>
+        <v>15.65884409053578</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>30.42566911196991</v>
+        <v>22.65078123291081</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.42566911196991</v>
+        <v>25.98702247878949</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.42566911196991</v>
+        <v>30.83294645951727</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.42566911196991</v>
+        <v>38.89649833504924</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>30.42566911196991</v>
+        <v>41.77075214910607</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.42566911196991</v>
+        <v>12.09669980898715</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.42566911196991</v>
+        <v>30.93352599671604</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.42566911196991</v>
+        <v>36.45201494625846</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.3248628653882726</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.42566911196991</v>
+        <v>33.95337074742255</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.42566911196991</v>
+        <v>40.1327729067585</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.42566911196991</v>
+        <v>9.170630601539042</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.42566911196991</v>
+        <v>23.48450190374077</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.42566911196991</v>
+        <v>27.86065773747699</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.42566911196991</v>
+        <v>23.82679643935884</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.42566911196991</v>
+        <v>30.81934556297093</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>30.42566911196991</v>
+        <v>34.15644464236217</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.42566911196991</v>
+        <v>39.00429769602383</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.42566911196991</v>
+        <v>47.06839337971255</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.42566911196991</v>
+        <v>49.9430104908084</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.42566911196991</v>
+        <v>20.26700779738379</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.42566911196991</v>
+        <v>39.10467653503449</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.42566911196991</v>
+        <v>44.62420877696078</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.42566911196991</v>
+        <v>-14.33356653142929</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>30.42566911196991</v>
+        <v>19.9414291123555</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.42566911196991</v>
+        <v>26.11847564709953</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.836125436513985</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.42566911196991</v>
+        <v>9.473840548578064</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.42566911196991</v>
+        <v>13.84786016098232</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.42566911196991</v>
+        <v>9.814358048521481</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.42566911196991</v>
+        <v>16.80331821767058</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.42566911196991</v>
+        <v>20.13854437643849</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.42566911196991</v>
+        <v>24.9820928245027</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>30.42566911196991</v>
+        <v>33.04377535641581</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>30.42566911196991</v>
+        <v>35.9173098573585</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.42566911196991</v>
+        <v>6.247675477240218</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.42566911196991</v>
+        <v>25.07983362069737</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.42566911196991</v>
+        <v>30.59760096859278</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>30.42566911196991</v>
+        <v>-9.759090224841916</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.42566911196991</v>
+        <v>24.52059254395496</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.42566911196991</v>
+        <v>30.69942360472325</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.2657216827289268</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.42566911196991</v>
+        <v>14.04831360696741</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.42566911196991</v>
+        <v>18.42373427091885</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.42566911196991</v>
+        <v>14.38972465525793</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.42566911196991</v>
+        <v>21.38205200813897</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.42566911196991</v>
+        <v>24.7184458032261</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.42566911196991</v>
+        <v>29.56489123006562</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.42566911196991</v>
+        <v>37.62908166173312</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>30.42566911196991</v>
+        <v>40.50345648612367</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.42566911196991</v>
+        <v>10.82763164732236</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.42566911196991</v>
+        <v>29.66554137925501</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.42566911196991</v>
+        <v>35.18435763018053</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>30.42566911196991</v>
+        <v>-1.596003914208868</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.42566911196991</v>
+        <v>32.68433228322087</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.42566911196991</v>
+        <v>38.86412491004589</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.42566911196991</v>
+        <v>7.900058634429197</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.42566911196991</v>
+        <v>22.21477540587395</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.42566911196991</v>
+        <v>26.59115932587516</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.42566911196991</v>
+        <v>22.55706281839124</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>30.42566911196991</v>
+        <v>29.55000218817767</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.42566911196991</v>
+        <v>32.88725386795304</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.42566911196991</v>
+        <v>37.73562850476978</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>30.42566911196991</v>
+        <v>45.80036279755413</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>30.42566911196991</v>
+        <v>48.67510095855855</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.42566911196991</v>
+        <v>18.99732562859694</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>30.42566911196991</v>
+        <v>37.83607797784859</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>30.42566911196991</v>
+        <v>43.35593759686751</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.42566911196991</v>
+        <v>2.031986069132554</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.42566911196991</v>
+        <v>36.30714076635795</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.42566911196991</v>
+        <v>42.48372855437</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.42566911196991</v>
+        <v>11.53121529435733</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>30.42566911196991</v>
+        <v>25.84209306148031</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.42566911196991</v>
+        <v>30.21577157336545</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.42566911196991</v>
+        <v>26.18213514871294</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.42566911196991</v>
+        <v>33.17213848910589</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.42566911196991</v>
+        <v>36.50709171131322</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.42566911196991</v>
+        <v>41.35001041066025</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.42566911196991</v>
+        <v>49.41176406749409</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.42566911196991</v>
+        <v>52.28505181500199</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.42566911196991</v>
+        <v>22.61490566320421</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.42566911196991</v>
+        <v>41.4478356778545</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.42566911196991</v>
+        <v>46.96527126580438</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.42566911196991</v>
+        <v>6.604145650476621</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.42566911196991</v>
+        <v>40.88398737981262</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.42566911196991</v>
+        <v>47.06235948069568</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.42566911196991</v>
+        <v>16.09930240031835</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.42566911196991</v>
+        <v>30.41424939385862</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.42566911196991</v>
+        <v>34.78932875287066</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.42566911196991</v>
+        <v>30.75518491509237</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.42566911196991</v>
+        <v>37.74855537538426</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.42566911196991</v>
+        <v>41.08467605355528</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.42566911196991</v>
+        <v>45.93049168204706</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.42566911196991</v>
+        <v>53.99475318056952</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.42566911196991</v>
+        <v>56.86888114706866</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.42566911196991</v>
+        <v>27.19254493356456</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.42566911196991</v>
+        <v>46.03122642444632</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.42566911196991</v>
+        <v>51.5497107039524</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.42566911196991</v>
+        <v>14.76670978083379</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.42566911196991</v>
+        <v>49.04720483486207</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.42566911196991</v>
+        <v>55.22653850948936</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.42566911196991</v>
+        <v>24.26456034076508</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.42566911196991</v>
+        <v>38.58018872528984</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>30.42566911196991</v>
+        <v>42.95623136985589</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.42566911196991</v>
+        <v>38.92200065705819</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.42566911196991</v>
+        <v>45.91598305689442</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.42566911196991</v>
+        <v>49.25296165290112</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.42566911196991</v>
+        <v>54.10070643963454</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.42566911196991</v>
+        <v>62.16551173900072</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.42566911196991</v>
+        <v>65.04000305677866</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.42566911196991</v>
+        <v>35.3617164620683</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.42566911196991</v>
+        <v>54.20124047231579</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.42566911196991</v>
+        <v>59.72076813555267</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.42566911196991</v>
+        <v>-17.86479496464679</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.42566911196991</v>
+        <v>16.40795785285783</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.42566911196991</v>
+        <v>22.58450402736295</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.3685437717177</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.42566911196991</v>
+        <v>5.940633067927106</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.42566911196991</v>
+        <v>10.31431620559871</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.42566911196991</v>
+        <v>6.28073862921141</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.42566911196991</v>
+        <v>13.26941065275272</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.42566911196991</v>
+        <v>16.60438867820912</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.42566911196991</v>
+        <v>21.44720952170709</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.42566911196991</v>
+        <v>29.5083201560835</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.42566911196991</v>
+        <v>32.38167250505009</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.42566911196991</v>
+        <v>2.713787596868851</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>30.42566911196991</v>
+        <v>21.54496037972725</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.42566911196991</v>
+        <v>27.06227701585757</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.42566911196991</v>
+        <v>-13.29064480025139</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.42566911196991</v>
+        <v>20.98679497383963</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.42566911196991</v>
+        <v>27.16512558201461</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.79846578100015</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.42566911196991</v>
+        <v>10.51478020411443</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.42566911196991</v>
+        <v>14.88986435123385</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.42566911196991</v>
+        <v>10.85577915831763</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.42566911196991</v>
+        <v>17.8478182329263</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.42566911196991</v>
+        <v>21.18396386912897</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.42566911196991</v>
+        <v>26.02968138360174</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.42566911196991</v>
+        <v>34.09329976770888</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.42566911196991</v>
+        <v>36.96749240380197</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.42566911196991</v>
+        <v>7.293417443091439</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.42566911196991</v>
+        <v>26.13034155758677</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.42566911196991</v>
+        <v>31.64870708423117</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.42566911196991</v>
+        <v>-5.126775577469662</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.42566911196991</v>
+        <v>29.15131758545325</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.42566911196991</v>
+        <v>35.33060966958723</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.42566911196991</v>
+        <v>4.368097200072125</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.42566911196991</v>
+        <v>18.68202462555493</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.42566911196991</v>
+        <v>23.05807196267525</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.42566911196991</v>
+        <v>19.0238999739864</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.42566911196991</v>
+        <v>26.01655102982417</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.42566911196991</v>
+        <v>29.3535544992736</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.42566911196991</v>
+        <v>34.20120108396677</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.42566911196991</v>
+        <v>42.26536326214395</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.42566911196991</v>
+        <v>45.13991921253555</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>30.42566911196991</v>
+        <v>15.46389391267425</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.42566911196991</v>
+        <v>34.30166056716845</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.42566911196991</v>
+        <v>39.82106937303612</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.42566911196991</v>
+        <v>-9.086598456152874</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.42566911196991</v>
+        <v>25.187962858747</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>30.42566911196991</v>
+        <v>31.36432445298291</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.42566911196991</v>
+        <v>0.4108023907029654</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.42566911196991</v>
+        <v>14.72111952676502</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.42566911196991</v>
+        <v>19.0945467188778</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.42566911196991</v>
+        <v>15.06113625914199</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.42566911196991</v>
+        <v>22.05064494436814</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.42566911196991</v>
+        <v>25.38536945436053</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.42566911196991</v>
+        <v>30.22836567029557</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.42566911196991</v>
+        <v>38.28996964726727</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.42566911196991</v>
+        <v>41.16316526606326</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.42566911196991</v>
+        <v>11.49375574529617</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.42566911196991</v>
+        <v>30.32609823421339</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.42566911196991</v>
+        <v>35.84321586199721</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.510349448882753</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.42566911196991</v>
+        <v>29.76889897867121</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.42566911196991</v>
+        <v>35.94704493397271</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.42566911196991</v>
+        <v>4.982979272802222</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.42566911196991</v>
+        <v>19.29736567453389</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.42566911196991</v>
+        <v>23.67219378705337</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>30.42566911196991</v>
+        <v>19.63827594925723</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.42566911196991</v>
+        <v>26.6311517805594</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.42566911196991</v>
+        <v>29.96704381700973</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.42566911196991</v>
+        <v>34.8129368826811</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.42566911196991</v>
+        <v>42.87704866660064</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.42566911196991</v>
+        <v>45.75108454593814</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.42566911196991</v>
+        <v>16.07548489718428</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>30.42566911196991</v>
+        <v>34.91357887138983</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.42566911196991</v>
+        <v>40.43174529480402</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.42566911196991</v>
+        <v>3.652960159275008</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.42566911196991</v>
+        <v>37.93286195201469</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>30.42566911196991</v>
+        <v>44.11196947538789</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.42566911196991</v>
+        <v>13.14898259821697</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.42566911196991</v>
+        <v>27.46405042437967</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.42566911196991</v>
+        <v>31.83984181672448</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.42566911196991</v>
+        <v>27.80583714825169</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>30.42566911196991</v>
+        <v>34.79932494785825</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>30.42566911196991</v>
+        <v>38.13607489744967</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>30.42566911196991</v>
+        <v>42.98389699312801</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.42566911196991</v>
+        <v>51.04855259781695</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.42566911196991</v>
+        <v>53.92295184513497</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.42566911196991</v>
+        <v>24.24540176108402</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.42566911196991</v>
+        <v>43.08433828280997</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.42566911196991</v>
+        <v>48.60354807054065</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.42566911196991</v>
+        <v>-17.73131797384977</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.42566911196991</v>
+        <v>16.54244716710602</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.42566911196991</v>
+        <v>22.71894900039953</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.234676681191022</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.42566911196991</v>
+        <v>6.07487652919232</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>30.42566911196991</v>
+        <v>10.44845735282976</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.42566911196991</v>
+        <v>6.415158239390703</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.42566911196991</v>
+        <v>13.40398796507631</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.42566911196991</v>
+        <v>16.7388550397263</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.42566911196991</v>
+        <v>21.58201562412281</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.42566911196991</v>
+        <v>29.64332544940177</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.42566911196991</v>
+        <v>32.51662028199686</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>30.42566911196991</v>
+        <v>2.848214718749059</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>30.42566911196991</v>
+        <v>21.67981551609361</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.42566911196991</v>
+        <v>27.19706214860932</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>30.42566911196991</v>
+        <v>-13.15942168657196</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>30.42566911196991</v>
+        <v>21.1190305188804</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.42566911196991</v>
+        <v>27.29731675331979</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.666852813777755</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>30.42566911196991</v>
+        <v>10.64676961719234</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.42566911196991</v>
+        <v>15.02175140529127</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.42566911196991</v>
+        <v>10.98794470189327</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>30.42566911196991</v>
+        <v>17.98014153333449</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.42566911196991</v>
+        <v>21.31617617569347</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.42566911196991</v>
+        <v>26.16223362625723</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>30.42566911196991</v>
+        <v>34.22605125705283</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.42566911196991</v>
+        <v>37.10018636237052</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.42566911196991</v>
+        <v>7.425590720231721</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.42566911196991</v>
+        <v>26.26294296650721</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.42566911196991</v>
+        <v>31.78123842634121</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.994009814350907</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.42566911196991</v>
+        <v>29.28509582426531</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.42566911196991</v>
+        <v>35.46434358361793</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.42566911196991</v>
+        <v>4.501252893116398</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.42566911196991</v>
+        <v>18.81555680423977</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.42566911196991</v>
+        <v>23.19150183383178</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.42566911196991</v>
+        <v>19.15760837394336</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.42566911196991</v>
+        <v>26.15041722114833</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>30.42566911196991</v>
+        <v>29.4873097437497</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.42566911196991</v>
+        <v>34.33529618278848</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.42566911196991</v>
+        <v>42.39965764190603</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>30.42566911196991</v>
+        <v>45.27415609431247</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>30.42566911196991</v>
+        <v>15.59760997226939</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.42566911196991</v>
+        <v>34.4358048084683</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.42566911196991</v>
+        <v>39.95514359796979</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>30.42566911196991</v>
+        <v>-22.8444954921047</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>30.42566911196991</v>
+        <v>11.42790329641704</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.42566911196991</v>
+        <v>17.60413032883227</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>30.42566911196991</v>
+        <v>-13.34871689193179</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.42566911196991</v>
+        <v>0.9601141491403631</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>30.42566911196991</v>
+        <v>5.3334653292446</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>30.42566911196991</v>
+        <v>1.300324029756293</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.42566911196991</v>
+        <v>8.288695003072544</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.42566911196991</v>
+        <v>11.62337201738805</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.42566911196991</v>
+        <v>16.46647648044799</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.42566911196991</v>
+        <v>24.52747670670973</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.42566911196991</v>
+        <v>27.40065722846915</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.266421394179847</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.42566911196991</v>
+        <v>16.56428624774875</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.42566911196991</v>
+        <v>22.08125718135656</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.42566911196991</v>
+        <v>-18.27146037528647</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.42566911196991</v>
+        <v>16.00562532770615</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.42566911196991</v>
+        <v>22.18363672061238</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.779753978215158</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.42566911196991</v>
+        <v>5.533146148043752</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>30.42566911196991</v>
+        <v>9.907898270802061</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>30.42566911196991</v>
+        <v>5.874249427686063</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30.42566911196991</v>
+        <v>12.86598739374764</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.42566911196991</v>
+        <v>16.20183196029367</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.42566911196991</v>
+        <v>21.0478331930411</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.42566911196991</v>
+        <v>29.1113411365969</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.42566911196991</v>
+        <v>31.98536191804677</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.42566911196991</v>
+        <v>2.312093364390503</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.42566911196991</v>
+        <v>21.14855225635798</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.42566911196991</v>
+        <v>26.66657201300719</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.42566911196991</v>
+        <v>-10.10619725169082</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.42566911196991</v>
+        <v>24.17154186961656</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.42566911196991</v>
+        <v>30.35051475845816</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.6117971293632856</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.42566911196991</v>
+        <v>13.70178446181566</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.42566911196991</v>
+        <v>18.07749978899696</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.42566911196991</v>
+        <v>14.04376420947741</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.42566911196991</v>
+        <v>21.03611417741089</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.42566911196991</v>
+        <v>24.37281658885498</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.42566911196991</v>
+        <v>29.22074671648815</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.42566911196991</v>
+        <v>37.28479847633602</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.42566911196991</v>
+        <v>40.15918259421537</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.42566911196991</v>
+        <v>10.48396362051616</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.42566911196991</v>
+        <v>29.3212650793142</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.42566911196991</v>
+        <v>34.84032812327754</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.42566911196991</v>
+        <v>-11.79053917345974</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.42566911196991</v>
+        <v>22.4843794845635</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.42566911196991</v>
+        <v>28.66151669558732</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.42566911196991</v>
+        <v>-2.29333140666532</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.42566911196991</v>
+        <v>12.01645967808085</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.42566911196991</v>
+        <v>16.3905674898634</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.42566911196991</v>
+        <v>12.35735666485956</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.42566911196991</v>
+        <v>19.34612987927457</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.42566911196991</v>
+        <v>22.68143476084978</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.42566911196991</v>
+        <v>27.5248741860415</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.42566911196991</v>
+        <v>35.58644945641319</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.42566911196991</v>
+        <v>38.46002654339028</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.42566911196991</v>
+        <v>8.790559187521094</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.42566911196991</v>
+        <v>27.62258216262509</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.42566911196991</v>
+        <v>33.1404291550443</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.42566911196991</v>
+        <v>-7.217712772454238</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.42566911196991</v>
+        <v>27.06189302666823</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.42566911196991</v>
+        <v>33.2408147844055</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>30.42566911196991</v>
+        <v>2.275422264550198</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.42566911196991</v>
+        <v>16.58928266668996</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.42566911196991</v>
+        <v>20.96479155228959</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.42566911196991</v>
+        <v>16.93107311978846</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.42566911196991</v>
+        <v>23.92321352784162</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.42566911196991</v>
+        <v>27.25968606634703</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.42566911196991</v>
+        <v>32.10602246612493</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.42566911196991</v>
+        <v>40.17010564329414</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.42566911196991</v>
+        <v>43.04452306356345</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>30.42566911196991</v>
+        <v>13.36886525286385</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.42566911196991</v>
+        <v>32.20663984087602</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.42566911196991</v>
+        <v>37.72553575630147</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.42566911196991</v>
+        <v>0.9461805043716502</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.42566911196991</v>
+        <v>35.22643976678941</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.42566911196991</v>
+        <v>41.4063230687901</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.42566911196991</v>
+        <v>10.44200960532825</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.42566911196991</v>
+        <v>24.7565515155936</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.42566911196991</v>
+        <v>29.13302364189073</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.42566911196991</v>
+        <v>25.0992183453371</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.42566911196991</v>
+        <v>32.09197079256373</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.42566911196991</v>
+        <v>35.42930120343189</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.42566911196991</v>
+        <v>40.27756681995001</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.42566911196991</v>
+        <v>48.34219386048071</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.42566911196991</v>
+        <v>51.21697460550226</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.42566911196991</v>
+        <v>21.53936628515234</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.42566911196991</v>
+        <v>40.37798350983391</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.42566911196991</v>
+        <v>45.89792278132015</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.42566911196991</v>
+        <v>-9.696631830110878</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.42566911196991</v>
+        <v>24.5776713116621</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.42566911196991</v>
+        <v>30.75419163843852</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.1992527316521411</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.42566911196991</v>
+        <v>14.11092192015891</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.42566911196991</v>
+        <v>18.48453149301687</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.42566911196991</v>
+        <v>14.45087482942935</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.42566911196991</v>
+        <v>21.44028447637683</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.42566911196991</v>
+        <v>24.77517909708135</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.42566911196991</v>
+        <v>29.61802946854536</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.42566911196991</v>
+        <v>37.67956489942796</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.42566911196991</v>
+        <v>40.55285996500012</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.42566911196991</v>
+        <v>10.88357166898194</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.42566911196991</v>
+        <v>29.71582942396784</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.42566911196991</v>
+        <v>35.23313035254645</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.42566911196991</v>
+        <v>-5.124479161249528</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.42566911196991</v>
+        <v>29.15451101279436</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.42566911196991</v>
+        <v>35.33281573444978</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.42566911196991</v>
+        <v>4.368827612271016</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.42566911196991</v>
+        <v>18.68307145432479</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.42566911196991</v>
+        <v>23.05808199000145</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.42566911196991</v>
+        <v>19.02391778162731</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.42566911196991</v>
+        <v>26.01669450893084</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.42566911196991</v>
+        <v>29.35275669712993</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.42566911196991</v>
+        <v>34.19850398554431</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.42566911196991</v>
+        <v>42.2625471922631</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>30.42566911196991</v>
+        <v>45.13668253120588</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.42566911196991</v>
+        <v>15.4612041954127</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.42566911196991</v>
+        <v>34.29921336114987</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.42566911196991</v>
+        <v>39.81756312037598</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.42566911196991</v>
+        <v>3.039394429581616</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.42566911196991</v>
+        <v>37.31903799073538</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.42566911196991</v>
+        <v>43.49830425613786</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.42566911196991</v>
+        <v>12.5353950292434</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.42566911196991</v>
+        <v>26.85032031380487</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.42566911196991</v>
+        <v>31.22629410805333</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.42566911196991</v>
+        <v>27.19204307357458</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.42566911196991</v>
+        <v>34.18543178482113</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.42566911196991</v>
+        <v>37.52235186774155</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>30.42566911196991</v>
+        <v>42.37002822009012</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.42566911196991</v>
+        <v>50.43461524377071</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.42566911196991</v>
+        <v>53.30911394061022</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.42566911196991</v>
+        <v>23.63168517506241</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.42566911196991</v>
+        <v>42.4705368968275</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.42566911196991</v>
+        <v>47.98993000119546</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.261463006995005</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.42566911196991</v>
+        <v>31.01473834231998</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.42566911196991</v>
+        <v>37.19195672974135</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>30.42566911196991</v>
+        <v>6.237180211033856</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.42566911196991</v>
+        <v>20.54795019311618</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.42566911196991</v>
+        <v>24.92212110404384</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.42566911196991</v>
+        <v>20.88850991624744</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.42566911196991</v>
+        <v>27.87807336407488</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.42566911196991</v>
+        <v>31.21342657970919</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.42566911196991</v>
+        <v>36.05676224487283</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.42566911196991</v>
+        <v>44.11873867682365</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.42566911196991</v>
+        <v>46.9923335662821</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.42566911196991</v>
+        <v>17.32143087809854</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.42566911196991</v>
+        <v>36.15451687953507</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>30.42566911196991</v>
+        <v>41.67248485930983</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.42566911196991</v>
+        <v>1.312130175231541</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.42566911196991</v>
+        <v>35.59301873814795</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.42566911196991</v>
+        <v>41.77202166405297</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.42566911196991</v>
+        <v>10.80670069978791</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.42566911196991</v>
+        <v>25.12154007263197</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.42566911196991</v>
+        <v>29.4971120346041</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.42566911196991</v>
+        <v>25.46299332049065</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.42566911196991</v>
+        <v>32.4559240251717</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.42566911196991</v>
+        <v>35.79244487440994</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.42566911196991</v>
+        <v>40.63867758819205</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.42566911196991</v>
+        <v>48.70316197738734</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.42566911196991</v>
+        <v>51.57759718867882</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.42566911196991</v>
+        <v>21.90050394415115</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.42566911196991</v>
+        <v>40.73934166267335</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.42566911196991</v>
+        <v>46.25835853220732</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>30.42566911196991</v>
+        <v>9.474864832961966</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.42566911196991</v>
+        <v>43.7564068148541</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.42566911196991</v>
+        <v>49.93637132201147</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.42566911196991</v>
+        <v>18.97212942324367</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.42566911196991</v>
+        <v>33.28765026974631</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.42566911196991</v>
+        <v>37.66418550818614</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>30.42566911196991</v>
+        <v>33.62997988504011</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.42566911196991</v>
+        <v>40.62352259998656</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.42566911196991</v>
+        <v>43.960901352891</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>30.42566911196991</v>
+        <v>48.8090633736891</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.42566911196991</v>
+        <v>56.87409161952584</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.42566911196991</v>
+        <v>59.74889016877702</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.42566911196991</v>
+        <v>30.06984643214454</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.42566911196991</v>
+        <v>48.90952676242293</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.42566911196991</v>
+        <v>54.42958702578332</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.07778876736737</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.42566911196991</v>
+        <v>26.19654323661345</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.42566911196991</v>
+        <v>32.37361433180601</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.42566911196991</v>
+        <v>1.419842062069701</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.42566911196991</v>
+        <v>15.72942947734495</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.42566911196991</v>
+        <v>20.10350516291382</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>30.42566911196991</v>
+        <v>16.07023344994726</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.42566911196991</v>
+        <v>23.05893754870837</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.42566911196991</v>
+        <v>26.39422344931765</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.42566911196991</v>
+        <v>31.23747631114733</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>30.42566911196991</v>
+        <v>39.29893040166732</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.42566911196991</v>
+        <v>42.17247001920711</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>30.42566911196991</v>
+        <v>12.50341242008775</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.42566911196991</v>
+        <v>31.33512186028301</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.42566911196991</v>
+        <v>36.85294204096871</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.503595140986167</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.42566911196991</v>
+        <v>30.77542388819287</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.42566911196991</v>
+        <v>36.95427950340567</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.42566911196991</v>
+        <v>5.989963190614699</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.42566911196991</v>
+        <v>20.30361982646783</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.42566911196991</v>
+        <v>24.6790965612092</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>30.42566911196991</v>
+        <v>20.64531728765914</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.42566911196991</v>
+        <v>27.63738850039973</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.42566911196991</v>
+        <v>30.97384203619773</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.42566911196991</v>
+        <v>35.81999180508578</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.42566911196991</v>
+        <v>43.88395374046033</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.42566911196991</v>
+        <v>46.75833366919343</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.42566911196991</v>
+        <v>17.08308570247331</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.42566911196991</v>
+        <v>35.92054661985398</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>30.42566911196991</v>
+        <v>41.4394157077364</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.42566911196991</v>
+        <v>4.659143729467896</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.42566911196991</v>
+        <v>38.93881618843872</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>30.42566911196991</v>
+        <v>45.11863332839559</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>30.42566911196991</v>
+        <v>14.15539606447177</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.42566911196991</v>
+        <v>28.46973417492697</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.42566911196991</v>
+        <v>32.84617412448821</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.42566911196991</v>
+        <v>28.81230796475128</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>30.42566911196991</v>
+        <v>35.80499118581403</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.42566911196991</v>
+        <v>39.1423025688525</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.42566911196991</v>
+        <v>43.99038156313313</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.42566911196991</v>
+        <v>52.0548873550857</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.42566911196991</v>
+        <v>54.92963059991743</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.42566911196991</v>
+        <v>25.2524321844638</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.42566911196991</v>
+        <v>44.09073570967323</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>30.42566911196991</v>
+        <v>49.61064813037271</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.42566911196991</v>
+        <v>-8.796301812807915</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.42566911196991</v>
+        <v>25.47979057751305</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.42566911196991</v>
+        <v>31.65663612056798</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.42566911196991</v>
+        <v>0.7017265465320541</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.42566911196991</v>
+        <v>15.0126559366133</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.42566911196991</v>
+        <v>19.38649111235801</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.42566911196991</v>
+        <v>15.35273062931705</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.42566911196991</v>
+        <v>22.34251356354329</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.42566911196991</v>
+        <v>25.67757765240989</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.42566911196991</v>
+        <v>30.52085070931943</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>30.42566911196991</v>
+        <v>38.58280340890403</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.42566911196991</v>
+        <v>41.4562375721284</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.42566911196991</v>
+        <v>11.78545551056194</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.42566911196991</v>
+        <v>30.61870980772741</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.42566911196991</v>
+        <v>36.13630276742296</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.223235486167173</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.42566911196991</v>
+        <v>30.05754414707027</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.42566911196991</v>
+        <v>36.23617417414718</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.42566911196991</v>
+        <v>5.270720285266489</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>30.42566911196991</v>
+        <v>19.58571907146196</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.42566911196991</v>
+        <v>23.96095526703047</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.42566911196991</v>
+        <v>19.92668724717427</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.42566911196991</v>
+        <v>26.91983743908801</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.42566911196991</v>
+        <v>30.25606913882708</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.42566911196991</v>
+        <v>35.10223920144844</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.42566911196991</v>
+        <v>43.16669981304423</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.42566911196991</v>
+        <v>46.04097428393717</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.42566911196991</v>
+        <v>16.36400184656426</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.42566911196991</v>
+        <v>35.20300784082005</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.42566911196991</v>
+        <v>40.72164967221792</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>30.42566911196991</v>
+        <v>3.940192461879032</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.42566911196991</v>
+        <v>38.22162550152106</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.42566911196991</v>
+        <v>44.40121711787296</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.42566911196991</v>
+        <v>13.43684220844656</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.42566911196991</v>
+        <v>27.75252245968815</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.42566911196991</v>
+        <v>32.12872195827978</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>30.42566911196991</v>
+        <v>28.09436705753236</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.42566911196991</v>
+        <v>35.08812925365359</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>30.42566911196991</v>
+        <v>38.42521888721907</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.42566911196991</v>
+        <v>43.27331817548119</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.42566911196991</v>
+        <v>51.33832263375868</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.42566911196991</v>
+        <v>54.21296046986114</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.42566911196991</v>
+        <v>24.53403752432754</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.42566911196991</v>
+        <v>43.37388611258118</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>30.42566911196991</v>
+        <v>48.89357134184385</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>30.42566911196991</v>
+        <v>-14.5355041849181</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.42566911196991</v>
+        <v>19.73768223691476</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.42566911196991</v>
+        <v>25.91450705856422</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.42566911196991</v>
+        <v>-5.038952497450769</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.42566911196991</v>
+        <v>9.270130253404854</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.42566911196991</v>
+        <v>13.64403240633848</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.42566911196991</v>
+        <v>9.610855180946228</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.42566911196991</v>
+        <v>16.59929203994235</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.42566911196991</v>
+        <v>19.93444718698057</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.42566911196991</v>
+        <v>24.77741177303286</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.42566911196991</v>
+        <v>32.83855654159376</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.42566911196991</v>
+        <v>35.71202085134652</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.42566911196991</v>
+        <v>6.043904860926059</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.42566911196991</v>
+        <v>24.87502352339206</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.42566911196991</v>
+        <v>30.39259201731906</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.42566911196991</v>
+        <v>-9.960376810686657</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.42566911196991</v>
+        <v>24.31749662888884</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.42566911196991</v>
+        <v>30.49610592296764</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.42566911196991</v>
+        <v>-0.4678974590517875</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.42566911196991</v>
+        <v>13.84525450867599</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.42566911196991</v>
+        <v>18.22055768376535</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.42566911196991</v>
+        <v>14.1868728687028</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.42566911196991</v>
+        <v>21.17867684231745</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.42566911196991</v>
+        <v>24.51499960489158</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.42566911196991</v>
+        <v>29.36086091865203</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.42566911196991</v>
+        <v>37.42451349161988</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.42566911196991</v>
+        <v>40.29881810455376</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.42566911196991</v>
+        <v>10.6245118180478</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.42566911196991</v>
+        <v>29.46138191736005</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.42566911196991</v>
+        <v>34.97999930850617</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.42566911196991</v>
+        <v>-1.797070011164383</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.42566911196991</v>
+        <v>32.48145685494043</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.42566911196991</v>
+        <v>38.66102763416572</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.42566911196991</v>
+        <v>7.698103209372757</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.42566911196991</v>
+        <v>22.01193665380432</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.42566911196991</v>
+        <v>26.38820300637789</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.42566911196991</v>
+        <v>22.3544313347987</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.42566911196991</v>
+        <v>29.34684732132004</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>30.42566911196991</v>
+        <v>32.68402789882916</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.42566911196991</v>
+        <v>37.53181836135249</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>30.42566911196991</v>
+        <v>45.59601476469797</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.42566911196991</v>
+        <v>48.47068266989808</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.42566911196991</v>
+        <v>18.7944259983511</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.42566911196991</v>
+        <v>37.63213868931675</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.42566911196991</v>
+        <v>43.15179937224124</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>30.42566911196991</v>
+        <v>-9.327869440082313</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.42566911196991</v>
+        <v>24.94625316149515</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.42566911196991</v>
+        <v>31.12334630004076</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.42566911196991</v>
+        <v>0.169611676035256</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.42566911196991</v>
+        <v>14.47905119652804</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>30.42566911196991</v>
+        <v>18.8531540396269</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.42566911196991</v>
+        <v>14.81988218986393</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.42566911196991</v>
+        <v>21.80847090004769</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.42566911196991</v>
+        <v>25.14378306713203</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.42566911196991</v>
+        <v>29.98704310107072</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.42566911196991</v>
+        <v>38.04843832736432</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.42566911196991</v>
+        <v>40.92199769430258</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.42566911196991</v>
+        <v>11.25312950789802</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.42566911196991</v>
+        <v>30.08468409206679</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.42566911196991</v>
+        <v>35.60252331948104</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.753929734817039</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.42566911196991</v>
+        <v>29.52487987931678</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>30.42566911196991</v>
+        <v>35.70375754857329</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.42566911196991</v>
+        <v>4.739478879636717</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>30.42566911196991</v>
+        <v>19.05298761092157</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.42566911196991</v>
+        <v>23.42849151557411</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>30.42566911196991</v>
+        <v>19.39471207158189</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.42566911196991</v>
+        <v>26.38666788809925</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.42566911196991</v>
+        <v>29.72314770229829</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.42566911196991</v>
+        <v>34.5693046253019</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.42566911196991</v>
+        <v>42.63320769468257</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>30.42566911196991</v>
+        <v>45.50760737630546</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>30.42566911196991</v>
+        <v>15.83254882650393</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.42566911196991</v>
+        <v>34.66985487503834</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.42566911196991</v>
+        <v>40.18874302292178</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.42566911196991</v>
+        <v>3.40894231125807</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.42566911196991</v>
+        <v>37.68840536024035</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.42566911196991</v>
+        <v>43.86824454492907</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.42566911196991</v>
+        <v>12.90504493475222</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.42566911196991</v>
+        <v>27.21923514425177</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.42566911196991</v>
+        <v>31.59570225475997</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>30.42566911196991</v>
+        <v>27.56183593087402</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.42566911196991</v>
+        <v>34.55440375880707</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.42566911196991</v>
+        <v>37.89174141196654</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>30.42566911196991</v>
+        <v>42.73982756009113</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.42566911196991</v>
+        <v>50.80427448297129</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.42566911196991</v>
+        <v>53.67903747563875</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.42566911196991</v>
+        <v>24.00202848565058</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.42566911196991</v>
+        <v>42.8401771424935</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>30.42566911196991</v>
+        <v>48.36010861430097</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.42566911196991</v>
+        <v>-4.171499558516221</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.42566911196991</v>
+        <v>30.10275216994088</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>30.42566911196991</v>
+        <v>36.27954574471707</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.42566911196991</v>
+        <v>5.326566510832063</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.42566911196991</v>
+        <v>19.6364141332983</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.42566911196991</v>
+        <v>24.01027312864786</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.42566911196991</v>
+        <v>19.97703624349182</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.42566911196991</v>
+        <v>26.96607700279295</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.42566911196991</v>
+        <v>30.30118559620709</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.42566911196991</v>
+        <v>35.14417473178545</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>30.42566911196991</v>
+        <v>43.20556436307967</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.42566911196991</v>
+        <v>46.07898186363624</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>30.42566911196991</v>
+        <v>16.40999451871047</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.42566911196991</v>
+        <v>35.24189240687801</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.42566911196991</v>
+        <v>40.75949557297767</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.42566911196991</v>
+        <v>0.4010914475823846</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.42566911196991</v>
+        <v>34.68003017706175</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.42566911196991</v>
+        <v>40.85860814689883</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.42566911196991</v>
+        <v>9.89508496316861</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.42566911196991</v>
+        <v>24.20900177160589</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.42566911196991</v>
+        <v>28.5842617015123</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.42566911196991</v>
+        <v>24.55051732334718</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>30.42566911196991</v>
+        <v>31.54292516428253</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.42566911196991</v>
+        <v>34.8792012933512</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>30.42566911196991</v>
+        <v>39.7250873134636</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>30.42566911196991</v>
+        <v>47.78898474513093</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.42566911196991</v>
+        <v>50.66324250552188</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.42566911196991</v>
+        <v>20.98806502447232</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>30.42566911196991</v>
+        <v>39.82571434300891</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.42566911196991</v>
+        <v>45.34436628917521</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.42566911196991</v>
+        <v>8.5641310665122</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.42566911196991</v>
+        <v>42.84372319640656</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>30.42566911196991</v>
+        <v>49.02326269407681</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.42566911196991</v>
+        <v>18.0608184872859</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.42566911196991</v>
+        <v>32.37541674605811</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.42566911196991</v>
+        <v>36.75163990894836</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.42566911196991</v>
+        <v>32.71780866854496</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.42566911196991</v>
+        <v>39.7108284977356</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.42566911196991</v>
+        <v>43.04796249516616</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.42566911196991</v>
+        <v>47.89577767774185</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.42566911196991</v>
+        <v>55.96021895335647</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>30.42566911196991</v>
+        <v>58.83484003872795</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.42566911196991</v>
+        <v>29.15771212015019</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>30.42566911196991</v>
+        <v>47.99620402065213</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>30.42566911196991</v>
+        <v>53.51589930830798</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.42566911196991</v>
+        <v>-7.921784591498099</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.42566911196991</v>
+        <v>26.35418253708221</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.42566911196991</v>
+        <v>32.53103765013938</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.42566911196991</v>
+        <v>1.576350808921543</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>30.42566911196991</v>
+        <v>15.88723193578309</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.42566911196991</v>
+        <v>20.26108205212514</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>30.42566911196991</v>
+        <v>16.22732588972903</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>30.42566911196991</v>
+        <v>23.2170877260547</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.42566911196991</v>
+        <v>26.55216708002294</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.42566911196991</v>
+        <v>31.39544298343625</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.42566911196991</v>
+        <v>39.4573656266567</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.42566911196991</v>
+        <v>42.33079483332048</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.42566911196991</v>
+        <v>12.66008379933109</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.42566911196991</v>
+        <v>31.49327907956203</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.42566911196991</v>
+        <v>37.01088531570448</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.42566911196991</v>
+        <v>-3.34867951676225</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.42566911196991</v>
+        <v>30.93197482771481</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.42566911196991</v>
+        <v>37.11061442367051</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.42566911196991</v>
+        <v>6.145383306371368</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.42566911196991</v>
+        <v>20.46033381041726</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.42566911196991</v>
+        <v>24.8355849422148</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>30.42566911196991</v>
+        <v>20.80132124681344</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>30.42566911196991</v>
+        <v>27.79445032671955</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.42566911196991</v>
+        <v>31.13069728649915</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>30.42566911196991</v>
+        <v>35.97687017549751</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>30.42566911196991</v>
+        <v>44.04130072168741</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.42566911196991</v>
+        <v>46.91557022866513</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.42566911196991</v>
+        <v>17.23866883346485</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.42566911196991</v>
+        <v>36.07761578701533</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>30.42566911196991</v>
+        <v>41.59627089154023</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>30.42566911196991</v>
+        <v>4.814498363201519</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.42566911196991</v>
+        <v>39.09580610848408</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.42566911196991</v>
+        <v>45.2754072845573</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>30.42566911196991</v>
+        <v>14.31125515154289</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.42566911196991</v>
+        <v>28.62688711456789</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.42566911196991</v>
+        <v>33.00310154016969</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.42566911196991</v>
+        <v>28.96875095732807</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.42566911196991</v>
+        <v>35.96249203542467</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.42566911196991</v>
+        <v>39.2995969209264</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.42566911196991</v>
+        <v>44.14769904221552</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.42566911196991</v>
+        <v>52.21267343298436</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.42566911196991</v>
+        <v>55.08730630159639</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>30.42566911196991</v>
+        <v>25.40845441584505</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.42566911196991</v>
+        <v>44.24824395747075</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>30.42566911196991</v>
+        <v>49.7679424529808</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-10.97465482736985</v>
+        <v>-10.97465482736621</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.30016871701022</v>
+        <v>23.30016871709025</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.47739350996912</v>
+        <v>29.47739350995456</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.477273429382453</v>
+        <v>-1.477273429380066</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.83248050610151</v>
+        <v>12.8324805061089</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.20668351819605</v>
+        <v>17.20668351818321</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.17331189362343</v>
+        <v>13.17331189365822</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.16206828290316</v>
+        <v>20.16206828285962</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.49746077783172</v>
+        <v>23.4974607777552</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.3407927560373</v>
+        <v>28.34079275599023</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.40235366958231</v>
+        <v>36.4023536695739</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.27598679419529</v>
+        <v>39.27598679418028</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.606469708300519</v>
+        <v>9.606469708289833</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.43844961406634</v>
+        <v>28.43844961401916</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.95639652820168</v>
+        <v>33.95639652817633</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-6.399714881941268</v>
+        <v>-6.399714881999476</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.87979582099635</v>
+        <v>27.8797958209918</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.05880518048363</v>
+        <v>34.05880518049727</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.093593941615691</v>
+        <v>3.093593941641156</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.40741721771425</v>
+        <v>17.40741721776382</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.78302132180371</v>
+        <v>21.78302132189352</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.74914211297877</v>
+        <v>17.74914211301992</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.74126571828807</v>
+        <v>24.74126571826113</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.07782588609413</v>
+        <v>28.07782588606628</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.92405476598796</v>
+        <v>32.9240547660107</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.98812359879318</v>
+        <v>40.98812359878227</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43.86259706131224</v>
+        <v>43.86259706129951</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.18688942703201</v>
+        <v>14.18688942701564</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.02462096770475</v>
+        <v>33.02462096768519</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.5436168255778</v>
+        <v>38.54361682557598</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.7634144508182</v>
+        <v>1.763414450771133</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.04357859912133</v>
+        <v>36.04357859911337</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.22354949492328</v>
+        <v>42.22354949491441</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.25941731074417</v>
+        <v>11.25941731076099</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.57392207867562</v>
+        <v>25.57392207868289</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.95048941172464</v>
+        <v>29.95048941170463</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.91652332115072</v>
+        <v>25.91652332111411</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.90925895134464</v>
+        <v>32.90925895124516</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.24667697978188</v>
+        <v>36.24667697969969</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.09483512317829</v>
+        <v>41.0948351231585</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.15944781336711</v>
+        <v>49.15944781336756</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>52.03428458989228</v>
+        <v>52.03428458982316</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.356626490823</v>
+        <v>22.35662649073251</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.19520065285334</v>
+        <v>41.19520065284652</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.71523985729161</v>
+        <v>46.71523985723067</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-6.902065490026335</v>
+        <v>-6.902065490012692</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.3737770366375</v>
+        <v>27.37377703667843</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.55048767864</v>
+        <v>33.55048767863795</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.596419357774348</v>
+        <v>2.59641935779845</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.90741026985287</v>
+        <v>16.90741026985651</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.28115095913571</v>
+        <v>21.28115095907955</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.24726836076828</v>
+        <v>17.247268360741</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.23720146739364</v>
+        <v>24.23720146738148</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.57219264802901</v>
+        <v>27.57219264794864</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.41523926031309</v>
+        <v>32.41523926025602</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.47717162097862</v>
+        <v>40.47717162096919</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.35052699966283</v>
+        <v>43.35052699966249</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.67986706876749</v>
+        <v>13.67986706874975</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.51307187909774</v>
+        <v>32.51307187909671</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.03057592183436</v>
+        <v>38.03057592179422</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-2.329865283314607</v>
+        <v>-2.329865283305512</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.95066442876995</v>
+        <v>31.95066442876267</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.1291594814389</v>
+        <v>38.1291594814098</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.164547061073872</v>
+        <v>7.164547061056364</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.47960731102384</v>
+        <v>21.47960731102759</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.85474895110914</v>
+        <v>25.85474895111721</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.82035886874845</v>
+        <v>21.8203588686575</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.81365918100513</v>
+        <v>28.81365918090691</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.1498179121123</v>
+        <v>32.14981791207569</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.99576157117312</v>
+        <v>36.99576157114629</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>45.06020181823712</v>
+        <v>45.06020181826827</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>47.93439746897636</v>
+        <v>47.93439746898977</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.25754730042362</v>
+        <v>18.25754730038042</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.0965037373962</v>
+        <v>37.09650373740644</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>42.61505657773338</v>
+        <v>42.61505657765426</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.833963567685569</v>
+        <v>5.83396356770012</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.11514665899833</v>
+        <v>40.11514665899423</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.29460330489493</v>
+        <v>46.29460330485469</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15.33106981217483</v>
+        <v>15.33106981216573</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.64681150313944</v>
+        <v>29.64681150312819</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.02291645090745</v>
+        <v>34.02291645089937</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.98843953424179</v>
+        <v>29.988439534197</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.98235183049596</v>
+        <v>36.98235183041649</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.31936849965913</v>
+        <v>40.31936849958262</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.16724131297846</v>
+        <v>45.16724131292821</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.2322253842726</v>
+        <v>53.2322253842552</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>56.1067844091385</v>
+        <v>56.10678440913043</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.42798376257096</v>
+        <v>26.42798376252662</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45.26778276564627</v>
+        <v>45.26778276563525</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>50.78737900559153</v>
+        <v>50.78737900557914</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-8.359428623282415</v>
+        <v>-8.359428623223184</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.91634909953265</v>
+        <v>25.91634909955993</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.09297401032015</v>
+        <v>32.09297401031424</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.138774529153206</v>
+        <v>1.138774529174579</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>15.44966648753413</v>
+        <v>15.44966648747751</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>19.82332324833348</v>
+        <v>19.82332324830824</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.78965633198171</v>
+        <v>15.78965633196989</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.77949111110294</v>
+        <v>22.7794911111134</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.11440810609448</v>
+        <v>26.1144081061079</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.95770133325285</v>
+        <v>30.9577013333072</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.01955796431545</v>
+        <v>39.01955796428544</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.89289023658918</v>
+        <v>41.89289023657804</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.22249298941832</v>
+        <v>12.22249298940696</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.05560261685431</v>
+        <v>31.0556026168758</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.57300243237123</v>
+        <v>36.57300243237475</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-3.785809757561456</v>
+        <v>-3.785809757568163</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.49465520781072</v>
+        <v>30.49465520782379</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.67306451483032</v>
+        <v>36.67306451486567</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.708320963004635</v>
+        <v>5.708320962945745</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.02328230293753</v>
+        <v>20.02328230288967</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.3983400030622</v>
+        <v>24.39834000303639</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.3641656269377</v>
+        <v>20.3641656269443</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.35736764849045</v>
+        <v>27.35736764844668</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.69345218419013</v>
+        <v>30.69345218419548</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.53964236687679</v>
+        <v>35.53964236688498</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.60400688843785</v>
+        <v>43.604006888469</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.47817943039578</v>
+        <v>46.4781794304067</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.8015919109051</v>
+        <v>16.80159191092056</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.6404532013224</v>
+        <v>35.6404532013315</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.15890180441019</v>
+        <v>41.15890180438473</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4.378120422598467</v>
+        <v>4.378120422621887</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.65923877798124</v>
+        <v>38.65923877798738</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.83860967987059</v>
+        <v>44.83860967982852</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.87494502820422</v>
+        <v>13.87494502823946</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.19058781948101</v>
+        <v>28.19058781955297</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.5666088334236</v>
+        <v>32.56660883341507</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.53234760583208</v>
+        <v>28.53234760580684</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.52616162017168</v>
+        <v>35.52616162012086</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.8631041009555</v>
+        <v>38.86310410097767</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.71122339858297</v>
+        <v>43.71122339858798</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.77613175758344</v>
+        <v>51.77613175755593</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.65066767337564</v>
+        <v>54.65066767334994</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.97212964460649</v>
+        <v>24.97212964460104</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.81183351479066</v>
+        <v>43.8118335149089</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.33132551917774</v>
+        <v>49.33132551918229</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-14.87289462917991</v>
+        <v>-14.8728946292155</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.40143594856462</v>
+        <v>19.40143594848595</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.57848430603107</v>
+        <v>25.57848430596377</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-5.375945678520939</v>
+        <v>-5.37594567857278</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8.933459073149802</v>
+        <v>8.933459073119561</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.30748966565372</v>
+        <v>13.30748966559437</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.274325257344653</v>
+        <v>9.274325257236423</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.26281244350534</v>
+        <v>16.26281244340529</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.59805205106144</v>
+        <v>19.59805205097049</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.44151589897578</v>
+        <v>24.44151589898123</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.50295146455866</v>
+        <v>32.50295146458231</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.37649596469689</v>
+        <v>35.37649596466505</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5.707674154656015</v>
+        <v>5.70767415467807</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.53922927334017</v>
+        <v>24.53922927326388</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.05699153314637</v>
+        <v>30.05699153309555</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-10.29870520130899</v>
+        <v>-10.29870520132502</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.98031246532625</v>
+        <v>23.9803124653084</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.15914536508646</v>
+        <v>30.15914536502927</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.8058288410642582</v>
+        <v>-0.8058288410560728</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>13.50764518421371</v>
+        <v>13.50764518415573</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.88307685054221</v>
+        <v>17.88307685043648</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.84940487062576</v>
+        <v>13.84940487060416</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.84125921452491</v>
+        <v>20.84125921456879</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.1776664802031</v>
+        <v>24.17766648022856</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.02402724877365</v>
+        <v>29.02402724881116</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.08797069417639</v>
+        <v>37.08797069418219</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.96235552230812</v>
+        <v>39.96235552235984</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.2873432546697</v>
+        <v>10.28734325467584</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.12464991768169</v>
+        <v>29.12464991773149</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.64346110632331</v>
+        <v>34.64346110636197</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-2.135002502113739</v>
+        <v>-2.135002502098732</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.14466862196045</v>
+        <v>32.14466862194487</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.32446305196171</v>
+        <v>38.32446305192909</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.360567874004655</v>
+        <v>7.360567874019207</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.67472339961179</v>
+        <v>21.67472339962645</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.0511182853381</v>
+        <v>26.05111828531093</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.01735945775303</v>
+        <v>22.01735945774257</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.00982583339461</v>
+        <v>29.00982583335653</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>32.34709095028549</v>
+        <v>32.34709095029993</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.19538090683031</v>
+        <v>37.19538090699061</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.25986821553724</v>
+        <v>45.25986821562478</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.1346163612171</v>
+        <v>48.13461636129009</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>18.45765361404423</v>
+        <v>18.45765361408538</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>37.29580290442979</v>
+        <v>37.29580290448106</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.81565742721997</v>
+        <v>42.81565742724919</v>
       </c>
     </row>
     <row r="182">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.56860105458994</v>
+        <v>27.56860105457539</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.74563013656356</v>
+        <v>33.74563013651991</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.791277235986254</v>
+        <v>2.791277235945099</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.10138165130362</v>
+        <v>17.1013816513765</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.47538984410695</v>
+        <v>21.47538984409047</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.44209702786324</v>
+        <v>17.4420970278762</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.43119775947136</v>
+        <v>24.43119775950057</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.76641532820437</v>
+        <v>27.76641532820062</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.60972857129386</v>
+        <v>32.60972857128317</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.67141142533191</v>
+        <v>40.67141142534896</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.54491642824937</v>
+        <v>43.544916428238</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.87511540273985</v>
+        <v>13.87511540270733</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.70738360674281</v>
+        <v>32.70738360667016</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.22514553872165</v>
+        <v>38.22514553870357</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-2.130368482926801</v>
+        <v>-2.130368482970457</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.14940202443196</v>
+        <v>32.14940202436375</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.32821561769671</v>
+        <v>38.32821561771763</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.363318609835769</v>
+        <v>7.363318609875787</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.67749233972514</v>
+        <v>21.67749233971832</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.05290156769453</v>
+        <v>26.05290156768248</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.01910129449683</v>
+        <v>22.01910129450706</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.01156922059405</v>
+        <v>29.01156922058348</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.34795441077992</v>
+        <v>32.34795441079027</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.19416457526822</v>
+        <v>37.19416457535098</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.25835532077778</v>
+        <v>45.25835532079597</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.1327006381218</v>
+        <v>48.13270063814727</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>18.45670914499723</v>
+        <v>18.45670914496995</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>37.29472894116086</v>
+        <v>37.29472894112493</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.81353976570014</v>
+        <v>42.8135397657056</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6.031976189506931</v>
+        <v>6.031976189481693</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.31240010872361</v>
+        <v>40.31240010870656</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.49217525983622</v>
+        <v>46.49217525985281</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15.52835724235009</v>
+        <v>15.52835724236146</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.84321243579799</v>
+        <v>29.84321243582528</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.21958491211373</v>
+        <v>34.21958491212101</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.18569773507724</v>
+        <v>30.18569773511885</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.17877766140086</v>
+        <v>37.17877766136868</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>40.51602072897626</v>
+        <v>40.51602072896682</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.36416012979871</v>
+        <v>45.36416012980257</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>53.42889473117302</v>
+        <v>53.42889473119348</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>56.30360337789543</v>
+        <v>56.30360337789179</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.62566142979344</v>
+        <v>26.62566142967384</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.46452382599611</v>
+        <v>45.46452382597838</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>50.98437801460474</v>
+        <v>50.98437801456927</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-2.80009227970098</v>
+        <v>-2.80009227962822</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>31.473671799853</v>
+        <v>31.4736717997857</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.64994900127269</v>
+        <v>37.64994900121994</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.698016405251874</v>
+        <v>6.698016405219587</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.0081477895703</v>
+        <v>21.00814778954415</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.3815514695311</v>
+        <v>25.38155146953133</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.3482099907786</v>
+        <v>21.34820999083771</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.3377351518437</v>
+        <v>28.33773515181641</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>31.67245622821323</v>
+        <v>31.67245622825507</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.51519555383661</v>
+        <v>36.51519555384752</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.57664560869509</v>
+        <v>44.57664560868054</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>47.44976296032675</v>
+        <v>47.44976296030379</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.78083467333985</v>
+        <v>17.7808346733569</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.61279950227933</v>
+        <v>36.61279950230366</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.12990190158891</v>
+        <v>42.12990190163188</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1.777063630114608</v>
+        <v>1.777063630067541</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.05551463690583</v>
+        <v>36.05551463680032</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.23357611654066</v>
+        <v>42.23357611647086</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.27110026531099</v>
+        <v>11.27110026529871</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.58530079074816</v>
+        <v>25.58530079077954</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.96010529355939</v>
+        <v>29.96010529359009</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.92625655278206</v>
+        <v>25.92625655278865</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.9191487671886</v>
+        <v>32.91914876721179</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.25503727890222</v>
+        <v>36.25503727886971</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.10067336044094</v>
+        <v>41.10067336046413</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>49.16463117229657</v>
+        <v>49.16463117227315</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>52.03858873447959</v>
+        <v>52.03858873451983</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.36347047474655</v>
+        <v>22.36347047476906</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.20118662978754</v>
+        <v>41.2011866298013</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>46.71933772976237</v>
+        <v>46.71933772976431</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.938820074722425</v>
+        <v>9.938820074740843</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.21792437672102</v>
+        <v>44.21792437671635</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.39694739945352</v>
+        <v>50.39694739948092</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>19.43555031022751</v>
+        <v>19.43555031019681</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.75043219587005</v>
+        <v>33.75043219591541</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.12619994311476</v>
+        <v>38.12619994308736</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.0922643560942</v>
+        <v>34.09226435616469</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>41.08576848201957</v>
+        <v>41.08576848203151</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.42251487190558</v>
+        <v>44.4225148719182</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.2700800200881</v>
+        <v>49.2700800200972</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.33458162374049</v>
+        <v>57.33458162375152</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>60.20890252546323</v>
+        <v>60.20890252544334</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>30.53183396050585</v>
+        <v>30.53183396051449</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.37039260262256</v>
+        <v>49.37039260263029</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>54.88958704434137</v>
+        <v>54.88958704434501</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-13.06394631321112</v>
+        <v>-13.06394631327115</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.20894689333724</v>
+        <v>21.20894689332632</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.38560316819413</v>
+        <v>27.38560316820141</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.567074399266208</v>
+        <v>-3.56707439933135</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.74204625253807</v>
+        <v>10.74204625250101</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.11583793595534</v>
+        <v>15.11583793592282</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.08257100814521</v>
+        <v>11.08257100815703</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.07114104302749</v>
+        <v>18.07114104305114</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.40621472798452</v>
+        <v>21.40621472800998</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.24924208804245</v>
+        <v>26.24924208803517</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.31028615994202</v>
+        <v>34.31028615988018</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.18369970502519</v>
+        <v>37.18369970498222</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.515837520571804</v>
+        <v>7.515837520552477</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.346912289247</v>
+        <v>26.34691228929497</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.86435241590081</v>
+        <v>31.86435241590013</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-8.488563619464262</v>
+        <v>-8.488563619491206</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.78901660432868</v>
+        <v>25.7890166042541</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.96745727967319</v>
+        <v>31.9674572795943</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1.00423607966567</v>
+        <v>1.004236079695229</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.31742594125179</v>
+        <v>15.31742594128863</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.69261858277408</v>
+        <v>19.69261858277931</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.65884409053578</v>
+        <v>15.65884409056056</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.65078123291081</v>
+        <v>22.65078123289035</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.98702247878949</v>
+        <v>25.98702247871696</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.83294645951727</v>
+        <v>30.83294645952591</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.89649833504924</v>
+        <v>38.8964983350622</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>41.77075214910607</v>
+        <v>41.77075214912631</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>12.09669980898715</v>
+        <v>12.09669980903876</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>30.93352599671604</v>
+        <v>30.93352599673343</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.45201494625846</v>
+        <v>36.45201494632951</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-0.3248628653882726</v>
+        <v>-0.3248628654609185</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.95337074742255</v>
+        <v>33.95337074738697</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.1327729067585</v>
+        <v>40.13277290666767</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>9.170630601539042</v>
+        <v>9.170630601499251</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.48450190374077</v>
+        <v>23.48450190372065</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.86065773747699</v>
+        <v>27.86065773747142</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.82679643935884</v>
+        <v>23.8267964393984</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.81934556297093</v>
+        <v>30.81934556297196</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>34.15644464236217</v>
+        <v>34.15644464232386</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.00429769602383</v>
+        <v>39.00429769607112</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.06839337971255</v>
+        <v>47.06839337970175</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.9430104908084</v>
+        <v>49.94301049082671</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.26700779738379</v>
+        <v>20.26700779742154</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.10467653503449</v>
+        <v>39.10467653502766</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.62420877696078</v>
+        <v>44.62420877699898</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-14.33356653142929</v>
+        <v>-14.33356653146032</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>19.9414291123555</v>
+        <v>19.94142911233174</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.11847564709953</v>
+        <v>26.11847564704848</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-4.836125436513985</v>
+        <v>-4.836125436526718</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.473840548578064</v>
+        <v>9.473840548632293</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.84786016098232</v>
+        <v>13.84786016100153</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>9.814358048521481</v>
+        <v>9.814358048574231</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.80331821767058</v>
+        <v>16.80331821766296</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.13854437643849</v>
+        <v>20.13854437639244</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.9820928245027</v>
+        <v>24.98209282449383</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.04377535641581</v>
+        <v>33.04377535639262</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.9173098573585</v>
+        <v>35.91730985738147</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>6.247675477240218</v>
+        <v>6.247675477234989</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.07983362069737</v>
+        <v>25.07983362074421</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.59760096859278</v>
+        <v>30.59760096854754</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-9.759090224841916</v>
+        <v>-9.759090224783709</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.52059254395496</v>
+        <v>24.52059254401498</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.69942360472325</v>
+        <v>30.69942360473666</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-0.2657216827289268</v>
+        <v>-0.2657216827105096</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>14.04831360696741</v>
+        <v>14.04831360703551</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.42373427091885</v>
+        <v>18.42373427095307</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.38972465525793</v>
+        <v>14.38972465529818</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>21.38205200813897</v>
+        <v>21.38205200806973</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.7184458032261</v>
+        <v>24.71844580321871</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.56489123006562</v>
+        <v>29.56489123009223</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.62908166173312</v>
+        <v>37.62908166175586</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.50345648612367</v>
+        <v>40.5034564861555</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.82763164732236</v>
+        <v>10.82763164728689</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.66554137925501</v>
+        <v>29.6655413793072</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.18435763018053</v>
+        <v>35.18435763021816</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1.596003914208868</v>
+        <v>-1.596003914186131</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.68433228322087</v>
+        <v>32.68433228324542</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.86412491004589</v>
+        <v>38.86412490997267</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>7.900058634429197</v>
+        <v>7.900058634458301</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.21477540587395</v>
+        <v>22.21477540592045</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.59115932587516</v>
+        <v>26.59115932592416</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.55706281839124</v>
+        <v>22.55706281844445</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.55000218817767</v>
+        <v>29.55000218826043</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.88725386795304</v>
+        <v>32.88725386798032</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.73562850476978</v>
+        <v>37.73562850482867</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.80036279755413</v>
+        <v>45.80036279755868</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>48.67510095855855</v>
+        <v>48.67510095856764</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.99732562859694</v>
+        <v>18.99732562851304</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.83607797784859</v>
+        <v>37.83607797782835</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.35593759686751</v>
+        <v>43.35593759686091</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.031986069132554</v>
+        <v>2.031986069113909</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.30714076635795</v>
+        <v>36.3071407663343</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.48372855437</v>
+        <v>42.48372855438728</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.53121529435733</v>
+        <v>11.53121529431936</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.84209306148031</v>
+        <v>25.84209306150793</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.21577157336545</v>
+        <v>30.21577157337375</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.18213514871294</v>
+        <v>26.18213514872749</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.17213848910589</v>
+        <v>33.17213848910953</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.50709171131322</v>
+        <v>36.50709171131868</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.35001041066025</v>
+        <v>41.35001041067116</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.41176406749409</v>
+        <v>49.41176406751774</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>52.28505181500199</v>
+        <v>52.28505181492923</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.61490566320421</v>
+        <v>22.61490566316078</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.4478356778545</v>
+        <v>41.44783567789463</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>46.96527126580438</v>
+        <v>46.96527126579699</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.604145650476621</v>
+        <v>6.604145650523005</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>40.88398737981262</v>
+        <v>40.88398737980046</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>47.06235948069568</v>
+        <v>47.06235948073103</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.09930240031835</v>
+        <v>16.09930240032585</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.41424939385862</v>
+        <v>30.41424939392013</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.78932875287066</v>
+        <v>34.78932875288146</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>30.75518491509237</v>
+        <v>30.75518491513875</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>37.74855537538426</v>
+        <v>37.74855537542587</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.08467605355528</v>
+        <v>41.0846760535496</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.93049168204706</v>
+        <v>45.93049168202455</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>53.99475318056952</v>
+        <v>53.99475318052814</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>56.86888114706866</v>
+        <v>56.86888114705297</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.19254493356456</v>
+        <v>27.19254493351795</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>46.03122642444632</v>
+        <v>46.03122642442108</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.5497107039524</v>
+        <v>51.54971070391716</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>14.76670978083379</v>
+        <v>14.76670978086358</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.04720483486207</v>
+        <v>49.04720483488435</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>55.22653850948936</v>
+        <v>55.2265385094789</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.26456034076508</v>
+        <v>24.26456034078396</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.58018872528984</v>
+        <v>38.58018872527506</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.95623136985589</v>
+        <v>42.9562313698211</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.92200065705819</v>
+        <v>38.92200065710526</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.91598305689442</v>
+        <v>45.91598305690965</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>49.25296165290112</v>
+        <v>49.2529616529184</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>54.10070643963454</v>
+        <v>54.10070643957155</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>62.16551173900072</v>
+        <v>62.16551173889397</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>65.04000305677866</v>
+        <v>65.04000305678514</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.3617164620683</v>
+        <v>35.36171646205693</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>54.20124047231579</v>
+        <v>54.20124047229237</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>59.72076813555267</v>
+        <v>59.72076813555654</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-17.86479496464679</v>
+        <v>-17.86479496468192</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.40795785285783</v>
+        <v>16.40795785284748</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.58450402736295</v>
+        <v>22.58450402726734</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-8.3685437717177</v>
+        <v>-8.368543771676659</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.940633067927106</v>
+        <v>5.94063306800123</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.31431620559871</v>
+        <v>10.31431620567488</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6.28073862921141</v>
+        <v>6.280738629221414</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.26941065275272</v>
+        <v>13.26941065274829</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.60438867820912</v>
+        <v>16.60438867818013</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.44720952170709</v>
+        <v>21.44720952169709</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.5083201560835</v>
+        <v>29.50832015610896</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32.38167250505009</v>
+        <v>32.38167250508829</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.713787596868851</v>
+        <v>2.713787596813372</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.54496037972725</v>
+        <v>21.54496037973544</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.06227701585757</v>
+        <v>27.06227701582574</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-13.29064480025139</v>
+        <v>-13.29064480027492</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.98679497383963</v>
+        <v>20.9867949738369</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.16512558201461</v>
+        <v>27.1651255820328</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-3.79846578100015</v>
+        <v>-3.798465781013338</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.51478020411443</v>
+        <v>10.51478020407509</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.88986435123385</v>
+        <v>14.88986435127932</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>10.85577915831763</v>
+        <v>10.8557791583631</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.8478182329263</v>
+        <v>17.84781823292289</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.18396386912897</v>
+        <v>21.18396386915739</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.02968138360174</v>
+        <v>26.02968138359173</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.09329976770888</v>
+        <v>34.09329976774549</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.96749240380197</v>
+        <v>36.96749240375104</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.293417443091439</v>
+        <v>7.293417443069611</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.13034155758677</v>
+        <v>26.1303415575795</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.64870708423117</v>
+        <v>31.64870708421389</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-5.126775577469662</v>
+        <v>-5.12677557752389</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.15131758545325</v>
+        <v>29.15131758537299</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.33060966958723</v>
+        <v>35.33060966955881</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>4.368097200072125</v>
+        <v>4.368097200141474</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.68202462555493</v>
+        <v>18.68202462555913</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.05807196267525</v>
+        <v>23.05807196264126</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.0238999739864</v>
+        <v>19.02389997397298</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.01655102982417</v>
+        <v>26.01655102981439</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.3535544992736</v>
+        <v>29.35355449919197</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.20120108396677</v>
+        <v>34.20120108400656</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.26536326214395</v>
+        <v>42.26536326211883</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.13991921253555</v>
+        <v>45.13991921247199</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.46389391267425</v>
+        <v>15.46389391277657</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>34.30166056716845</v>
+        <v>34.30166056712787</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>39.82106937303612</v>
+        <v>39.82106937302078</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.086598456152874</v>
+        <v>-9.086598456148781</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.187962858747</v>
+        <v>25.18796285876121</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.36432445298291</v>
+        <v>31.36432445299416</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.4108023907029654</v>
+        <v>0.4108023907372989</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>14.72111952676502</v>
+        <v>14.72111952675058</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.0945467188778</v>
+        <v>19.09454671884518</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.06113625914199</v>
+        <v>15.06113625916245</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.05064494436814</v>
+        <v>22.05064494442226</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.38536945436053</v>
+        <v>25.38536945434961</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.22836567029557</v>
+        <v>30.22836567021531</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.28996964726727</v>
+        <v>38.2899696472891</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.16316526606326</v>
+        <v>41.1631652660885</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.49375574529617</v>
+        <v>11.4937557452707</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.32609823421339</v>
+        <v>30.32609823418496</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.84321586199721</v>
+        <v>35.84321586195355</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-4.510349448882753</v>
+        <v>-4.510349448899124</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.76889897867121</v>
+        <v>29.76889897862574</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.94704493397271</v>
+        <v>35.94704493394724</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>4.982979272802222</v>
+        <v>4.982979272835191</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.29736567453389</v>
+        <v>19.29736567452661</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.67219378705337</v>
+        <v>23.67219378706156</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.63827594925723</v>
+        <v>19.63827594918856</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.6311517805594</v>
+        <v>26.63115178052484</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.96704381700973</v>
+        <v>29.96704381700337</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.8129368826811</v>
+        <v>34.81293688266655</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.87704866660064</v>
+        <v>42.8770486665679</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.75108454593814</v>
+        <v>45.75108454596179</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.07548489718428</v>
+        <v>16.07548489713335</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.91357887138983</v>
+        <v>34.91357887128342</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>40.43174529480402</v>
+        <v>40.43174529476673</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>3.652960159275008</v>
+        <v>3.652960159267959</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.93286195201469</v>
+        <v>37.93286195202572</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.11196947538789</v>
+        <v>44.11196947538801</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>13.14898259821697</v>
+        <v>13.14898259825221</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.46405042437967</v>
+        <v>27.46405042439889</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.83984181672448</v>
+        <v>31.83984181672528</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.80583714825169</v>
+        <v>27.80583714825874</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>34.79932494785825</v>
+        <v>34.7993249477947</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.13607489744967</v>
+        <v>38.13607489739704</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.98389699312801</v>
+        <v>42.98389699312233</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.04855259781695</v>
+        <v>51.04855259784344</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>53.92295184513497</v>
+        <v>53.92295184513873</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.24540176108402</v>
+        <v>24.24540176105219</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.08433828280997</v>
+        <v>43.08433828279939</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.60354807054065</v>
+        <v>48.60354807051894</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-17.73131797384977</v>
+        <v>-17.73131797387797</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.54244716710602</v>
+        <v>16.54244716703121</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.71894900039953</v>
+        <v>22.71894900042932</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-8.234676681191022</v>
+        <v>-8.234676681185565</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>6.07487652919232</v>
+        <v>6.074876529194139</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.44845735282976</v>
+        <v>10.44845735280066</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>6.415158239390703</v>
+        <v>6.415158239359098</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>13.40398796507631</v>
+        <v>13.40398796519682</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.7388550397263</v>
+        <v>16.73885503972607</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.58201562412281</v>
+        <v>21.58201562414555</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.64332544940177</v>
+        <v>29.64332544938801</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.51662028199686</v>
+        <v>32.51662028198766</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>2.848214718749059</v>
+        <v>2.848214718766339</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.67981551609361</v>
+        <v>21.67981551612635</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.19706214860932</v>
+        <v>27.19706214861068</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-13.15942168657196</v>
+        <v>-13.15942168651182</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.1190305188804</v>
+        <v>21.1190305188895</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.29731675331979</v>
+        <v>27.29731675332706</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-3.666852813777755</v>
+        <v>-3.666852813755927</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.64676961719234</v>
+        <v>10.64676961721599</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.02175140529127</v>
+        <v>15.02175140533401</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>10.98794470189327</v>
+        <v>10.98794470188258</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>17.98014153333449</v>
+        <v>17.98014153329981</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.31617617569347</v>
+        <v>21.31617617569381</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.16223362625723</v>
+        <v>26.16223362627042</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.22605125705283</v>
+        <v>34.22605125706056</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.10018636237052</v>
+        <v>37.10018636235142</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.425590720231721</v>
+        <v>7.425590720271284</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.26294296650721</v>
+        <v>26.26294296653267</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.78123842634121</v>
+        <v>31.78123842635781</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-4.994009814350907</v>
+        <v>-4.994009814229035</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.28509582426531</v>
+        <v>29.28509582428486</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.46434358361793</v>
+        <v>35.46434358356132</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.501252893116398</v>
+        <v>4.501252893100936</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.81555680423977</v>
+        <v>18.81555680427615</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>23.19150183383178</v>
+        <v>23.1915018338245</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.15760837394336</v>
+        <v>19.15760837394268</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.15041722114833</v>
+        <v>26.15041722120096</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.4873097437497</v>
+        <v>29.48730974374959</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.33529618278848</v>
+        <v>34.33529618284715</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.39965764190603</v>
+        <v>42.39965764195628</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.27415609431247</v>
+        <v>45.27415609434362</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.59760997226939</v>
+        <v>15.59760997231578</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.4358048084683</v>
+        <v>34.4358048085156</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.95514359796979</v>
+        <v>39.95514359797889</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-22.8444954921047</v>
+        <v>-22.84449549209197</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.42790329641704</v>
+        <v>11.42790329646285</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.60413032883227</v>
+        <v>17.60413032881169</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-13.34871689193179</v>
+        <v>-13.34871689197556</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.9601141491403631</v>
+        <v>0.9601141491001179</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.3334653292446</v>
+        <v>5.333465329226183</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.300324029756293</v>
+        <v>1.30032402974879</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.288695003072544</v>
+        <v>8.288695003002172</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.62337201738805</v>
+        <v>11.62337201738111</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.46647648044799</v>
+        <v>16.46647648044049</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.52747670670973</v>
+        <v>24.52747670676271</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.40065722846915</v>
+        <v>27.40065722848257</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-2.266421394179847</v>
+        <v>-2.266421394169843</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.56428624774875</v>
+        <v>16.56428624773613</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.08125718135656</v>
+        <v>22.08125718134781</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-18.27146037528647</v>
+        <v>-18.27146037528488</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.00562532770615</v>
+        <v>16.00562532768717</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.18363672061238</v>
+        <v>22.18363672061431</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-8.779753978215158</v>
+        <v>-8.779753978221638</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.533146148043752</v>
+        <v>5.533146148090818</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>9.907898270802061</v>
+        <v>9.907898270811838</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.874249427686063</v>
+        <v>5.874249427693794</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.86598739374764</v>
+        <v>12.86598739368625</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.20183196029367</v>
+        <v>16.201831960318</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.0478331930411</v>
+        <v>21.04783319308566</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.1113411365969</v>
+        <v>29.11134113662692</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.98536191804677</v>
+        <v>31.98536191805223</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>2.312093364390503</v>
+        <v>2.312093364354123</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.14855225635798</v>
+        <v>21.14855225632331</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.66657201300719</v>
+        <v>26.66657201298161</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-10.10619725169082</v>
+        <v>-10.10619725166262</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.17154186961656</v>
+        <v>24.17154186962611</v>
       </c>
     </row>
     <row r="574">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-0.6117971293632856</v>
+        <v>-0.6117971293545317</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>13.70178446181566</v>
+        <v>13.70178446182805</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.07749978899696</v>
+        <v>18.07749978898411</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.04376420947741</v>
+        <v>14.04376420951357</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.03611417741089</v>
+        <v>21.03611417738065</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>24.37281658885498</v>
+        <v>24.37281658880041</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.22074671648815</v>
+        <v>29.22074671645154</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.28479847633602</v>
+        <v>37.28479847637945</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.15918259421537</v>
+        <v>40.1591825942206</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.48396362051616</v>
+        <v>10.48396362051775</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.3212650793142</v>
+        <v>29.32126507928282</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.84032812327754</v>
+        <v>34.84032812325003</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-11.79053917345974</v>
+        <v>-11.79053917349077</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.4843794845635</v>
+        <v>22.48437948450336</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.66151669558732</v>
+        <v>28.66151669551081</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2.29333140666532</v>
+        <v>-2.293331406638035</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.01645967808085</v>
+        <v>12.0164596781187</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.3905674898634</v>
+        <v>16.39056748985169</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.35735666485956</v>
+        <v>12.35735666486684</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>19.34612987927457</v>
+        <v>19.34612987929969</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.68143476084978</v>
+        <v>22.6814347608292</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.5248741860415</v>
+        <v>27.52487418603991</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.58644945641319</v>
+        <v>35.58644945640091</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.46002654339028</v>
+        <v>38.46002654339142</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>8.790559187521094</v>
+        <v>8.790559187515864</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.62258216262509</v>
+        <v>27.62258216263191</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>33.1404291550443</v>
+        <v>33.14042915502452</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-7.217712772454238</v>
+        <v>-7.217712772479704</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.06189302666823</v>
+        <v>27.06189302667005</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>33.2408147844055</v>
+        <v>33.24081478434616</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>2.275422264550198</v>
+        <v>2.275422264548606</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.58928266668996</v>
+        <v>16.58928266670167</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.96479155228959</v>
+        <v>20.96479155228925</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.93107311978846</v>
+        <v>16.93107311973958</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.92321352784162</v>
+        <v>23.92321352780149</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.25968606634703</v>
+        <v>27.25968606630689</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.10602246612493</v>
+        <v>32.10602246612788</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>40.17010564329414</v>
+        <v>40.17010564334961</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>43.04452306356345</v>
+        <v>43.04452306361529</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.36886525286385</v>
+        <v>13.36886525278655</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.20663984087602</v>
+        <v>32.20663984088455</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.72553575630147</v>
+        <v>37.72553575630818</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>0.9461805043716502</v>
+        <v>0.9461805043759703</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.22643976678941</v>
+        <v>35.22643976679032</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.4063230687901</v>
+        <v>41.40632306878601</v>
       </c>
     </row>
     <row r="620">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.7565515155936</v>
+        <v>24.75655151562918</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.13302364189073</v>
+        <v>29.13302364191426</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.0992183453371</v>
+        <v>25.09921834536484</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.09197079256373</v>
+        <v>32.09197079256282</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.42930120343189</v>
+        <v>35.42930120344826</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.27756681995001</v>
+        <v>40.27756681999981</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>48.34219386048071</v>
+        <v>48.3421938605089</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.21697460550226</v>
+        <v>51.21697460552954</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.53936628515234</v>
+        <v>21.53936628512119</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.37798350983391</v>
+        <v>40.37798350982641</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>45.89792278132015</v>
+        <v>45.89792278130446</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-9.696631830110878</v>
+        <v>-9.696631830159877</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.5776713116621</v>
+        <v>24.57767131169461</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.75419163843852</v>
+        <v>30.75419163848741</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-0.1992527316521411</v>
+        <v>-0.199252731670331</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.11092192015891</v>
+        <v>14.1109219201771</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.48453149301687</v>
+        <v>18.48453149302028</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.45087482942935</v>
+        <v>14.45087482940593</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.44028447637683</v>
+        <v>21.44028447634579</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.77517909708135</v>
+        <v>24.77517909705599</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.61802946854536</v>
+        <v>29.61802946855968</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.67956489942796</v>
+        <v>37.67956489942978</v>
       </c>
     </row>
     <row r="643">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.88357166898194</v>
+        <v>10.88357166895238</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.71582942396784</v>
+        <v>29.71582942393476</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.23313035254645</v>
+        <v>35.23313035257499</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-5.124479161249528</v>
+        <v>-5.124479161271356</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.15451101279436</v>
+        <v>29.15451101281618</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.33281573444978</v>
+        <v>35.33281573438521</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>4.368827612271016</v>
+        <v>4.3688276122551</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.68307145432479</v>
+        <v>18.68307145438493</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.05808199000145</v>
+        <v>23.05808199002339</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.02391778162731</v>
+        <v>19.02391778164778</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.01669450893084</v>
+        <v>26.01669450893311</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.35275669712993</v>
+        <v>29.35275669711015</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.19850398554431</v>
+        <v>34.19850398555272</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.2625471922631</v>
+        <v>42.26254719225582</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.13668253120588</v>
+        <v>45.13668253120679</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.4612041954127</v>
+        <v>15.46120419541839</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.29921336114987</v>
+        <v>34.29921336114759</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.81756312037598</v>
+        <v>39.81756312029594</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>3.039394429581616</v>
+        <v>3.039394429612084</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.31903799073538</v>
+        <v>37.3190379907322</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.49830425613786</v>
+        <v>43.4983042561233</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.5353950292434</v>
+        <v>12.53539502928774</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.85032031380487</v>
+        <v>26.85032031382977</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.22629410805333</v>
+        <v>31.22629410809892</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.19204307357458</v>
+        <v>27.19204307361096</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.18543178482113</v>
+        <v>34.18543178484205</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>37.52235186774155</v>
+        <v>37.52235186766447</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.37002822009012</v>
+        <v>42.37002822013923</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.43461524377071</v>
+        <v>50.43461524376525</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>53.30911394061022</v>
+        <v>53.30911394052472</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.63168517506241</v>
+        <v>23.63168517501739</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.4705368968275</v>
+        <v>42.47053689681067</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.98993000119546</v>
+        <v>47.98993000119228</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-3.261463006995005</v>
+        <v>-3.261463006929976</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.01473834231998</v>
+        <v>31.01473834232374</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.19195672974135</v>
+        <v>37.19195672969781</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6.237180211033856</v>
+        <v>6.237180211039995</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>20.54795019311618</v>
+        <v>20.5479501931247</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.92212110404384</v>
+        <v>24.92212110402417</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.88850991624744</v>
+        <v>20.88850991622197</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.87807336407488</v>
+        <v>27.87807336404304</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.21342657970919</v>
+        <v>31.213426579691</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.05676224487283</v>
+        <v>36.05676224487351</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.11873867682365</v>
+        <v>44.11873867681194</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>46.9923335662821</v>
+        <v>46.99233356623856</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>17.32143087809854</v>
+        <v>17.32143087803578</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.15451687953507</v>
+        <v>36.1545168795345</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>41.67248485930983</v>
+        <v>41.67248485929494</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1.312130175231541</v>
+        <v>1.312130175226994</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.59301873814795</v>
+        <v>35.59301873815068</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>41.77202166405297</v>
+        <v>41.77202166406298</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>10.80670069978791</v>
+        <v>10.8067006997629</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.12154007263197</v>
+        <v>25.12154007263618</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.4971120346041</v>
+        <v>29.49711203458102</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.46299332049065</v>
+        <v>25.46299332054317</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.4559240251717</v>
+        <v>32.45592402521387</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.79244487440994</v>
+        <v>35.79244487443779</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.63867758819205</v>
+        <v>40.638677588185</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>48.70316197738734</v>
+        <v>48.70316197739257</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.57759718867882</v>
+        <v>51.57759718875954</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.90050394415115</v>
+        <v>21.90050394413387</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.73934166267335</v>
+        <v>40.73934166266858</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.25835853220732</v>
+        <v>46.25835853217481</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>9.474864832961966</v>
+        <v>9.474864833012671</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.7564068148541</v>
+        <v>43.75640681492061</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.93637132201147</v>
+        <v>49.93637132204114</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>18.97212942324367</v>
+        <v>18.97212942324185</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>33.28765026974631</v>
+        <v>33.28765026975358</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.66418550818614</v>
+        <v>37.66418550812429</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>33.62997988504011</v>
+        <v>33.62997988505535</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.62352259998656</v>
+        <v>40.62352260003635</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.960901352891</v>
+        <v>43.96090135289032</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.8090633736891</v>
+        <v>48.80906337369456</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.87409161952584</v>
+        <v>56.87409161953676</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>59.74889016877702</v>
+        <v>59.74889016879976</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.06984643214454</v>
+        <v>30.06984643207724</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.90952676242293</v>
+        <v>48.90952676242395</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>54.42958702578332</v>
+        <v>54.42958702582163</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-8.07778876736737</v>
+        <v>-8.077788767382717</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.19654323661345</v>
+        <v>26.19654323656036</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.37361433180601</v>
+        <v>32.37361433172586</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>1.419842062069701</v>
+        <v>1.419842062073112</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.72942947734495</v>
+        <v>15.72942947735052</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.10350516291382</v>
+        <v>20.10350516293644</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.07023344994726</v>
+        <v>16.07023344996318</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.05893754870837</v>
+        <v>23.0589375487028</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.39422344931765</v>
+        <v>26.39422344933004</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.23747631114733</v>
+        <v>31.23747631113073</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>39.29893040166732</v>
+        <v>39.29893040159922</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.17247001920711</v>
+        <v>42.17247001917539</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.50341242008775</v>
+        <v>12.50341242013914</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.33512186028301</v>
+        <v>31.33512186028232</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.85294204096871</v>
+        <v>36.85294204094075</v>
       </c>
     </row>
     <row r="737">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.77542388819287</v>
+        <v>30.7754238881923</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.95427950340567</v>
+        <v>36.95427950343489</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.989963190614699</v>
+        <v>5.989963190626977</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.30361982646783</v>
+        <v>20.30361982643077</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.6790965612092</v>
+        <v>24.67909656123603</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.64531728765914</v>
+        <v>20.64531728770211</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.63738850039973</v>
+        <v>27.63738850040451</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.97384203619773</v>
+        <v>30.9738420362132</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.81999180508578</v>
+        <v>35.81999180506691</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.88395374046033</v>
+        <v>43.88395374052126</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>46.75833366919343</v>
+        <v>46.75833366912795</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>17.08308570247331</v>
+        <v>17.08308570241692</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.92054661985398</v>
+        <v>35.92054661983943</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.4394157077364</v>
+        <v>41.43941570780916</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>4.659143729467896</v>
+        <v>4.659143729457892</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.93881618843872</v>
+        <v>38.93881618848886</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.11863332839559</v>
+        <v>45.11863332840844</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>14.15539606447177</v>
+        <v>14.15539606447814</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.46973417492697</v>
+        <v>28.46973417497039</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.84617412448821</v>
+        <v>32.84617412451982</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.81230796475128</v>
+        <v>28.81230796475515</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.80499118581403</v>
+        <v>35.80499118586064</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.1423025688525</v>
+        <v>39.14230256887728</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.99038156313313</v>
+        <v>43.99038156310448</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>52.0548873550857</v>
+        <v>52.05488735505682</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>54.92963059991743</v>
+        <v>54.92963059987559</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.2524321844638</v>
+        <v>25.25243218448994</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.09073570967323</v>
+        <v>44.09073570967368</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.61064813037271</v>
+        <v>49.61064813034747</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-8.796301812807915</v>
+        <v>-8.796301812807688</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.47979057751305</v>
+        <v>25.47979057746792</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.65663612056798</v>
+        <v>31.65663612053489</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.7017265465320541</v>
+        <v>0.7017265465163653</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.0126559366133</v>
+        <v>15.01265593661671</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.38649111235801</v>
+        <v>19.38649111238052</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>15.35273062931705</v>
+        <v>15.35273062931637</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.34251356354329</v>
+        <v>22.34251356352896</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.67757765240989</v>
+        <v>25.67757765243467</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.52085070931943</v>
+        <v>30.52085070942129</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.58280340890403</v>
+        <v>38.58280340895132</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.4562375721284</v>
+        <v>41.45623757214841</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>11.78545551056194</v>
+        <v>11.7854555106056</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.61870980772741</v>
+        <v>30.61870980778198</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.13630276742296</v>
+        <v>36.13630276751391</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-4.223235486167173</v>
+        <v>-4.22323548611158</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.05754414707027</v>
+        <v>30.05754414707254</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.23617417414718</v>
+        <v>36.23617417411853</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>5.270720285266489</v>
+        <v>5.270720285183952</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.58571907146196</v>
+        <v>19.5857190714465</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.96095526703047</v>
+        <v>23.96095526702819</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.92668724717427</v>
+        <v>19.92668724721451</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.91983743908801</v>
+        <v>26.91983743909813</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.25606913882708</v>
+        <v>30.25606913885471</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.10223920144844</v>
+        <v>35.10223920145549</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>43.16669981304423</v>
+        <v>43.16669981305276</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>46.04097428393717</v>
+        <v>46.04097428390159</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.36400184656426</v>
+        <v>16.36400184654948</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.20300784082005</v>
+        <v>35.2030078407997</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>40.72164967221792</v>
+        <v>40.72164967222713</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>3.940192461879032</v>
+        <v>3.940192461866527</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.22162550152106</v>
+        <v>38.22162550148661</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.40121711787296</v>
+        <v>44.40121711778212</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>13.43684220844656</v>
+        <v>13.43684220842132</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.75252245968815</v>
+        <v>27.75252245962653</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.12872195827978</v>
+        <v>32.12872195827251</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.09436705753236</v>
+        <v>28.09436705751804</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.08812925365359</v>
+        <v>35.08812925361062</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.42521888721907</v>
+        <v>38.42521888717565</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.27331817548119</v>
+        <v>43.27331817546255</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>51.33832263375868</v>
+        <v>51.33832263372651</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.21296046986114</v>
+        <v>54.2129604698176</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.53403752432754</v>
+        <v>24.53403752430844</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.37388611258118</v>
+        <v>43.37388611260369</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.89357134184385</v>
+        <v>48.89357134189365</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-14.5355041849181</v>
+        <v>-14.5355041849081</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.73768223691476</v>
+        <v>19.73768223690589</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.91450705856422</v>
+        <v>25.91450705856331</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-5.038952497450769</v>
+        <v>-5.038952497464752</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.270130253404854</v>
+        <v>9.270130253426</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.64403240633848</v>
+        <v>13.64403240637031</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.610855180946228</v>
+        <v>9.610855180872559</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.59929203994235</v>
+        <v>16.59929203988778</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.93444718698057</v>
+        <v>19.93444718694306</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.77741177303286</v>
+        <v>24.77741177301126</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.83855654159376</v>
+        <v>32.83855654157546</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.71202085134652</v>
+        <v>35.71202085131003</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>6.043904860926059</v>
+        <v>6.043904860913099</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.87502352339206</v>
+        <v>24.87502352342036</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.39259201731906</v>
+        <v>30.39259201732304</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-9.960376810686657</v>
+        <v>-9.96037681072713</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.31749662888884</v>
+        <v>24.31749662886565</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.49610592296764</v>
+        <v>30.4961059229449</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.4678974590517875</v>
+        <v>-0.4678974589990368</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>13.84525450867599</v>
+        <v>13.84525450859959</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.22055768376535</v>
+        <v>18.22055768375261</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.1868728687028</v>
+        <v>14.18687286868188</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.17867684231745</v>
+        <v>21.1786768423228</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.51499960489158</v>
+        <v>24.51499960487055</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.36086091865203</v>
+        <v>29.36086091867454</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.42451349161988</v>
+        <v>37.42451349161385</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>40.29881810455376</v>
+        <v>40.29881810452841</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.6245118180478</v>
+        <v>10.6245118180644</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.46138191736005</v>
+        <v>29.4613819173106</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.97999930850617</v>
+        <v>34.97999930851969</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1.797070011164383</v>
+        <v>-1.797070011138008</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.48145685494043</v>
+        <v>32.48145685497749</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.66102763416572</v>
+        <v>38.66102763412934</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>7.698103209372757</v>
+        <v>7.698103209383671</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.01193665380432</v>
+        <v>22.01193665374248</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.38820300637789</v>
+        <v>26.3882030063979</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.3544313347987</v>
+        <v>22.35443133470229</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.34684732132004</v>
+        <v>29.34684732126911</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>32.68402789882916</v>
+        <v>32.68402789877641</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.53181836135249</v>
+        <v>37.53181836124472</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.59601476469797</v>
+        <v>45.59601476465716</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>48.47068266989808</v>
+        <v>48.47068266987478</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>18.7944259983511</v>
+        <v>18.79442599835997</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.63213868931675</v>
+        <v>37.63213868927139</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.15179937224124</v>
+        <v>43.1517993722093</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-9.327869440082313</v>
+        <v>-9.32786944010596</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.94625316149515</v>
+        <v>24.94625316147571</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>31.12334630004076</v>
+        <v>31.12334630003314</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.169611676035256</v>
+        <v>0.1696116759959203</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>14.47905119652804</v>
+        <v>14.47905119654817</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.8531540396269</v>
+        <v>18.8531540395904</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.81988218986393</v>
+        <v>14.81988218996898</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.80847090004769</v>
+        <v>21.80847090006293</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.14378306713203</v>
+        <v>25.14378306712839</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.98704310107072</v>
+        <v>29.987043101088</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.04843832736432</v>
+        <v>38.0484383273716</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>40.92199769430258</v>
+        <v>40.9219976942762</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>11.25312950789802</v>
+        <v>11.25312950790416</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.08468409206679</v>
+        <v>30.08468409205417</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.60252331948104</v>
+        <v>35.60252331944568</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-4.753929734817039</v>
+        <v>-4.753929734797939</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.52487987931678</v>
+        <v>29.52487987934498</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.70375754857329</v>
+        <v>35.70375754856283</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.739478879636717</v>
+        <v>4.739478879647177</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.05298761092157</v>
+        <v>19.05298761094124</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.42849151557411</v>
+        <v>23.42849151558172</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>19.39471207158189</v>
+        <v>19.39471207161963</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.38666788809925</v>
+        <v>26.38666788810562</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.72314770229829</v>
+        <v>29.72314770228283</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.5693046253019</v>
+        <v>34.56930462532463</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.63320769468257</v>
+        <v>42.63320769468996</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.50760737630546</v>
+        <v>45.50760737633468</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.83254882650393</v>
+        <v>15.83254882657169</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.66985487503834</v>
+        <v>34.66985487501924</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.18874302292178</v>
+        <v>40.1887430229327</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>3.40894231125807</v>
+        <v>3.408942311263754</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.68840536024035</v>
+        <v>37.68840536023319</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.86824454492907</v>
+        <v>43.86824454490554</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.90504493475222</v>
+        <v>12.90504493474904</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.21923514425177</v>
+        <v>27.21923514426097</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>31.59570225475997</v>
+        <v>31.59570225479828</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.56183593087402</v>
+        <v>27.56183593089971</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.55440375880707</v>
+        <v>34.55440375882719</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.89174141196654</v>
+        <v>37.89174141199211</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.73982756009113</v>
+        <v>42.73982756007658</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>50.80427448297129</v>
+        <v>50.80427448296402</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.67903747563875</v>
+        <v>53.67903747560715</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.00202848565058</v>
+        <v>24.00202848568219</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>42.8401771424935</v>
+        <v>42.84017714253102</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>48.36010861430097</v>
+        <v>48.36010861431416</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-4.171499558516221</v>
+        <v>-4.171499558519745</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.10275216994088</v>
+        <v>30.10275217000727</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.27954574471707</v>
+        <v>36.27954574478801</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.326566510832063</v>
+        <v>5.326566510825241</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>19.6364141332983</v>
+        <v>19.6364141332119</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.01027312864786</v>
+        <v>24.01027312855237</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.97703624349182</v>
+        <v>19.97703624347227</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.96607700279295</v>
+        <v>26.96607700276226</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.30118559620709</v>
+        <v>30.30118559619686</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.14417473178545</v>
+        <v>35.14417473178023</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.20556436307967</v>
+        <v>43.20556436307592</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.07898186363624</v>
+        <v>46.0789818635761</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.40999451871047</v>
+        <v>16.40999451864999</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>35.24189240687801</v>
+        <v>35.2418924068771</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.75949557297767</v>
+        <v>40.7594955729829</v>
       </c>
     </row>
     <row r="917">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.68003017706175</v>
+        <v>34.68003017706755</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>40.85860814689883</v>
+        <v>40.85860814687325</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.89508496316861</v>
+        <v>9.895084963214313</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.20900177160589</v>
+        <v>24.20900177161613</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.5842617015123</v>
+        <v>28.58426170153708</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.55051732334718</v>
+        <v>24.55051732334308</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>31.54292516428253</v>
+        <v>31.54292516429504</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.8792012933512</v>
+        <v>34.87920129333415</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.7250873134636</v>
+        <v>39.72508731347543</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.78898474513093</v>
+        <v>47.78898474512673</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.66324250552188</v>
+        <v>50.66324250549471</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.98806502447232</v>
+        <v>20.98806502445413</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>39.82571434300891</v>
+        <v>39.82571434303438</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.34436628917521</v>
+        <v>45.34436628916407</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>8.5641310665122</v>
+        <v>8.564131066450582</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.84372319640656</v>
+        <v>42.84372319634903</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.02326269407681</v>
+        <v>49.02326269407567</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>18.0608184872859</v>
+        <v>18.06081848718744</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>32.37541674605811</v>
+        <v>32.37541674602809</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.75163990894836</v>
+        <v>36.75163990889311</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>32.71780866854496</v>
+        <v>32.71780866853973</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>39.7108284977356</v>
+        <v>39.71082849769581</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.04796249516616</v>
+        <v>43.04796249510136</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.89577767774185</v>
+        <v>47.89577767768978</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>55.96021895335647</v>
+        <v>55.96021895334692</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>58.83484003872795</v>
+        <v>58.83484003871271</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.15771212015019</v>
+        <v>29.1577121201561</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.99620402065213</v>
+        <v>47.99620402060268</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.51589930830798</v>
+        <v>53.51589930828081</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-7.921784591498099</v>
+        <v>-7.921784591495712</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.35418253708221</v>
+        <v>26.35418253711279</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.53103765013938</v>
+        <v>32.5310376501736</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1.576350808921543</v>
+        <v>1.576350808956786</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>15.88723193578309</v>
+        <v>15.88723193583504</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>20.26108205212514</v>
+        <v>20.26108205221007</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.22732588972903</v>
+        <v>16.22732588974881</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.2170877260547</v>
+        <v>23.21708772605993</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.55216708002294</v>
+        <v>26.55216708003749</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.39544298343625</v>
+        <v>31.39544298345603</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.4573656266567</v>
+        <v>39.45736562667659</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.33079483332048</v>
+        <v>42.33079483331423</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>12.66008379933109</v>
+        <v>12.66008379934132</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.49327907956203</v>
+        <v>31.49327907953372</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.01088531570448</v>
+        <v>37.01088531567891</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-3.34867951676225</v>
+        <v>-3.348679516754974</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.93197482771481</v>
+        <v>30.93197482768252</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.11061442367051</v>
+        <v>37.11061442369507</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.145383306371368</v>
+        <v>6.145383306445947</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>20.46033381041726</v>
+        <v>20.46033381050401</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.8355849422148</v>
+        <v>24.8355849423186</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>20.80132124681344</v>
+        <v>20.80132124684618</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>27.79445032671955</v>
+        <v>27.794450326705</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.13069728649915</v>
+        <v>31.13069728650643</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.97687017549751</v>
+        <v>35.97687017559937</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.04130072168741</v>
+        <v>44.04130072174186</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.91557022866513</v>
+        <v>46.91557022868162</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.23866883346485</v>
+        <v>17.2386688334171</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.07761578701533</v>
+        <v>36.07761578699703</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>41.59627089154023</v>
+        <v>41.59627089155126</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>4.814498363201519</v>
+        <v>4.81449836320493</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.09580610848408</v>
+        <v>39.09580610848602</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>45.2754072845573</v>
+        <v>45.275407284539</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>14.31125515154289</v>
+        <v>14.31125515156767</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.62688711456789</v>
+        <v>28.62688711455595</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.00310154016969</v>
+        <v>33.00310154022301</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.96875095732807</v>
+        <v>28.96875095732738</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.96249203542467</v>
+        <v>35.96249203542638</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.2995969209264</v>
+        <v>39.29959692088627</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.14769904221552</v>
+        <v>44.14769904225167</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.21267343298436</v>
+        <v>52.21267343297697</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>55.08730630159639</v>
+        <v>55.08730630161446</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>25.40845441584505</v>
+        <v>25.40845441582686</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.24824395747075</v>
+        <v>44.24824395749712</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.7679424529808</v>
+        <v>49.76794245301355</v>
       </c>
     </row>
   </sheetData>
